--- a/asignacionFiscales.xlsx
+++ b/asignacionFiscales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="487">
   <si>
     <t>index_left</t>
   </si>
@@ -94,6 +94,9 @@
     <t>Provincia_right</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>0101</t>
   </si>
   <si>
@@ -781,6 +784,9 @@
     <t>ESMERALDAS</t>
   </si>
   <si>
+    <t>SANTO DOMINGO</t>
+  </si>
+  <si>
     <t>GALAPAGOS</t>
   </si>
   <si>
@@ -817,661 +823,658 @@
     <t>SANTA ELENA</t>
   </si>
   <si>
+    <t>SUCUMBIOS</t>
+  </si>
+  <si>
+    <t>TUNGURAHUA</t>
+  </si>
+  <si>
+    <t>ZAMORA CHINCHIPE</t>
+  </si>
+  <si>
+    <t>CUENCA</t>
+  </si>
+  <si>
+    <t>GUALACEO</t>
+  </si>
+  <si>
+    <t>CAMILO PONCE ENRIQUEZ</t>
+  </si>
+  <si>
+    <t>SANTA ISABEL</t>
+  </si>
+  <si>
+    <t>PAUTE</t>
+  </si>
+  <si>
+    <t>SIGSIG</t>
+  </si>
+  <si>
+    <t>GIRON</t>
+  </si>
+  <si>
+    <t>NABON</t>
+  </si>
+  <si>
+    <t>PUCARA</t>
+  </si>
+  <si>
+    <t>CHORDELEG</t>
+  </si>
+  <si>
+    <t>SAN FERNANDO</t>
+  </si>
+  <si>
+    <t>SEVILLA DE ORO</t>
+  </si>
+  <si>
+    <t>GUACHAPALA</t>
+  </si>
+  <si>
+    <t>EL PAN</t>
+  </si>
+  <si>
+    <t>OÑA</t>
+  </si>
+  <si>
+    <t>GUARANDA</t>
+  </si>
+  <si>
+    <t>SAN MIGUEL</t>
+  </si>
+  <si>
+    <t>ECHANDíA</t>
+  </si>
+  <si>
+    <t>CALUMA</t>
+  </si>
+  <si>
+    <t>CHILLANES</t>
+  </si>
+  <si>
+    <t>SAN JOSE DE CHIMBO</t>
+  </si>
+  <si>
+    <t>LAS NAVES</t>
+  </si>
+  <si>
+    <t>TULCAN</t>
+  </si>
+  <si>
+    <t>MONTUFAR</t>
+  </si>
+  <si>
+    <t>ESPEJO</t>
+  </si>
+  <si>
+    <t>MIRA</t>
+  </si>
+  <si>
+    <t>SAN PEDRO DE HUACA</t>
+  </si>
+  <si>
+    <t>AZOGUES</t>
+  </si>
+  <si>
+    <t>LA TRONCAL</t>
+  </si>
+  <si>
+    <t>CANAR</t>
+  </si>
+  <si>
+    <t>BIBLIAN</t>
+  </si>
+  <si>
+    <t>EL TAMBO</t>
+  </si>
+  <si>
+    <t>DELEG</t>
+  </si>
+  <si>
+    <t>SUSCAL</t>
+  </si>
+  <si>
+    <t>RIOBAMBA</t>
+  </si>
+  <si>
+    <t>GUANO</t>
+  </si>
+  <si>
+    <t>CUMANDA</t>
+  </si>
+  <si>
+    <t>ALAUSI</t>
+  </si>
+  <si>
+    <t>COLTA</t>
+  </si>
+  <si>
+    <t>GUAMOTE</t>
+  </si>
+  <si>
+    <t>PALLATANGA</t>
+  </si>
+  <si>
+    <t>CHUNCHI</t>
+  </si>
+  <si>
+    <t>CHAMBO</t>
+  </si>
+  <si>
+    <t>PENIPE</t>
+  </si>
+  <si>
+    <t>LATACUNGA</t>
+  </si>
+  <si>
+    <t>SAN MIGUEL DE SALCEDO</t>
+  </si>
+  <si>
+    <t>LA MANA</t>
+  </si>
+  <si>
+    <t>PUJILI</t>
+  </si>
+  <si>
+    <t>SAQUISILI</t>
+  </si>
+  <si>
+    <t>PANGUA</t>
+  </si>
+  <si>
+    <t>SIGCHOS</t>
+  </si>
+  <si>
+    <t>MACHALA</t>
+  </si>
+  <si>
+    <t>PASAJE</t>
+  </si>
+  <si>
+    <t>SANTA ROSA</t>
+  </si>
+  <si>
+    <t>HUAQUILLAS</t>
+  </si>
+  <si>
+    <t>EL GUABO</t>
+  </si>
+  <si>
+    <t>ARENILLAS</t>
+  </si>
+  <si>
+    <t>PINAS</t>
+  </si>
+  <si>
+    <t>PORTOVELO</t>
+  </si>
+  <si>
+    <t>ZARUMA</t>
+  </si>
+  <si>
+    <t>BALSAS</t>
+  </si>
+  <si>
+    <t>MARCABELI</t>
+  </si>
+  <si>
+    <t>LAS LAJAS</t>
+  </si>
+  <si>
+    <t>ATAHUALPA</t>
+  </si>
+  <si>
+    <t>CHILLA</t>
+  </si>
+  <si>
+    <t>QUININDE</t>
+  </si>
+  <si>
+    <t>ATACAMES</t>
+  </si>
+  <si>
+    <t>SAN LORENZO</t>
+  </si>
+  <si>
+    <t>ELOY ALFARO</t>
+  </si>
+  <si>
+    <t>MUISNE</t>
+  </si>
+  <si>
+    <t>RIO VERDE</t>
+  </si>
+  <si>
+    <t>LA CONCORDIA</t>
+  </si>
+  <si>
+    <t>SANTA CRUZ</t>
+  </si>
+  <si>
+    <t>SAN CRISTOBAL</t>
+  </si>
+  <si>
+    <t>ISABELA</t>
+  </si>
+  <si>
+    <t>GUAYAQUIL</t>
+  </si>
+  <si>
+    <t>DURAN</t>
+  </si>
+  <si>
+    <t>MILAGRO</t>
+  </si>
+  <si>
+    <t>DAULE</t>
+  </si>
+  <si>
+    <t>PLAYAS</t>
+  </si>
+  <si>
+    <t>NARANJAL</t>
+  </si>
+  <si>
+    <t>SAMBORONDON</t>
+  </si>
+  <si>
+    <t>SAN JACINTO DE YAGUACHI</t>
+  </si>
+  <si>
+    <t>EL TRIUNFO</t>
+  </si>
+  <si>
+    <t>PEDRO CARBO</t>
+  </si>
+  <si>
+    <t>NARANJITO</t>
+  </si>
+  <si>
+    <t>BALZAR</t>
+  </si>
+  <si>
+    <t>BALAO</t>
+  </si>
+  <si>
+    <t>SALITRE</t>
+  </si>
+  <si>
+    <t>SANTA LUCIA</t>
+  </si>
+  <si>
+    <t>NOBOL</t>
+  </si>
+  <si>
+    <t>SIMON BOLIVAR</t>
+  </si>
+  <si>
+    <t>LOMAS DE SARGENTILLO</t>
+  </si>
+  <si>
+    <t>PALESTINA</t>
+  </si>
+  <si>
+    <t>COLIMES</t>
+  </si>
+  <si>
+    <t>ISIDRO AYORA</t>
+  </si>
+  <si>
+    <t>ALFREDO BAQUERIZO MORENO ( JUJAN )</t>
+  </si>
+  <si>
+    <t>GENERAL ANTONIO ELIZALDE (BUCAY)</t>
+  </si>
+  <si>
+    <t>EL EMPALME</t>
+  </si>
+  <si>
+    <t>CORONEL MARCELINO MARIDUENA</t>
+  </si>
+  <si>
+    <t>IBARRA</t>
+  </si>
+  <si>
+    <t>OTAVALO</t>
+  </si>
+  <si>
+    <t>ANTONIO ANTE</t>
+  </si>
+  <si>
+    <t>COTACACHI</t>
+  </si>
+  <si>
+    <t>SAN MIGUEL DE URCUQUI</t>
+  </si>
+  <si>
+    <t>PIMAMPIRO</t>
+  </si>
+  <si>
+    <t>CATAMAYO</t>
+  </si>
+  <si>
+    <t>CALVAS</t>
+  </si>
+  <si>
+    <t>MACARA</t>
+  </si>
+  <si>
+    <t>SARAGURO</t>
+  </si>
+  <si>
+    <t>PALTAS</t>
+  </si>
+  <si>
+    <t>GONZANAMA</t>
+  </si>
+  <si>
+    <t>CELICA</t>
+  </si>
+  <si>
+    <t>PUYANGO</t>
+  </si>
+  <si>
+    <t>ZAPOTILLO</t>
+  </si>
+  <si>
+    <t>CHAGUARPAMBA</t>
+  </si>
+  <si>
+    <t>ESPINDOLA</t>
+  </si>
+  <si>
+    <t>PINDAL</t>
+  </si>
+  <si>
+    <t>OLMEDO (LOJA)</t>
+  </si>
+  <si>
+    <t>QUILANGA</t>
+  </si>
+  <si>
+    <t>SOZORANGA</t>
+  </si>
+  <si>
+    <t>QUEVEDO</t>
+  </si>
+  <si>
+    <t>BABAHOYO</t>
+  </si>
+  <si>
+    <t>VENTANAS</t>
+  </si>
+  <si>
+    <t>VINCES</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>PUEBLO VIEJO</t>
+  </si>
+  <si>
+    <t>MOCACHE</t>
+  </si>
+  <si>
+    <t>MONTALVO</t>
+  </si>
+  <si>
+    <t>BABA</t>
+  </si>
+  <si>
+    <t>PALENQUE</t>
+  </si>
+  <si>
+    <t>URDANETA</t>
+  </si>
+  <si>
+    <t>QUINSALOMA</t>
+  </si>
+  <si>
+    <t>SAN JACINTO DE BUENA FE</t>
+  </si>
+  <si>
+    <t>PORTOVIEJO</t>
+  </si>
+  <si>
+    <t>MANTA</t>
+  </si>
+  <si>
+    <t>EL CARMEN</t>
+  </si>
+  <si>
+    <t>CHONE</t>
+  </si>
+  <si>
+    <t>MONTECRISTI</t>
+  </si>
+  <si>
+    <t>PEDERNALES</t>
+  </si>
+  <si>
+    <t>JIPIJAPA</t>
+  </si>
+  <si>
+    <t>SUCRE</t>
+  </si>
+  <si>
+    <t>SANTA ANA</t>
+  </si>
+  <si>
+    <t>ROCAFUERTE</t>
+  </si>
+  <si>
+    <t>SAN VICENTE</t>
+  </si>
+  <si>
+    <t>PAJAN</t>
+  </si>
+  <si>
+    <t>TOSAGUA</t>
+  </si>
+  <si>
+    <t>24 DE MAYO</t>
+  </si>
+  <si>
+    <t>JARAMIJO</t>
+  </si>
+  <si>
+    <t>FLAVIO ALFARO</t>
+  </si>
+  <si>
+    <t>PUERTO LOPEZ</t>
+  </si>
+  <si>
+    <t>JUNIN</t>
+  </si>
+  <si>
+    <t>JAMA</t>
+  </si>
+  <si>
+    <t>OLMEDO</t>
+  </si>
+  <si>
+    <t>BOLIVAR (CALCETA)</t>
+  </si>
+  <si>
+    <t>MORONA</t>
+  </si>
+  <si>
+    <t>SUCUA</t>
+  </si>
+  <si>
+    <t>GUALAQUIZA</t>
+  </si>
+  <si>
+    <t>PALORA ( METZERA )</t>
+  </si>
+  <si>
+    <t>SANTIAGO (MENDEZ)</t>
+  </si>
+  <si>
+    <t>LIMON INDANZA</t>
+  </si>
+  <si>
+    <t>TAISHA</t>
+  </si>
+  <si>
+    <t>HUAMBOYA</t>
+  </si>
+  <si>
+    <t>LOGRONO</t>
+  </si>
+  <si>
+    <t>TIWINTZA</t>
+  </si>
+  <si>
+    <t>SAN JUAN BOSCO</t>
+  </si>
+  <si>
+    <t>PABLO VI</t>
+  </si>
+  <si>
+    <t>TENA</t>
+  </si>
+  <si>
+    <t>ARCHIDONA</t>
+  </si>
+  <si>
+    <t>QUIJOS</t>
+  </si>
+  <si>
+    <t>EL CHACO</t>
+  </si>
+  <si>
+    <t>CARLOS JULIO AROSEMENA TOLA</t>
+  </si>
+  <si>
+    <t>PUERTO FRANCISCO DE ORELLANA</t>
+  </si>
+  <si>
+    <t>LA JOYA DE LOS SACHAS</t>
+  </si>
+  <si>
+    <t>LORETO</t>
+  </si>
+  <si>
+    <t>AGUARICO</t>
+  </si>
+  <si>
+    <t>PASTAZA (PUYO)</t>
+  </si>
+  <si>
+    <t>MERA</t>
+  </si>
+  <si>
+    <t>ARAJUNO</t>
+  </si>
+  <si>
+    <t>SANTA CLARA</t>
+  </si>
+  <si>
+    <t>QUITO</t>
+  </si>
+  <si>
+    <t>RUMINAHUI</t>
+  </si>
+  <si>
+    <t>MEJIA</t>
+  </si>
+  <si>
+    <t>CAYAMBE</t>
+  </si>
+  <si>
+    <t>PEDRO MONCAYO</t>
+  </si>
+  <si>
+    <t>PUERTO QUITO</t>
+  </si>
+  <si>
+    <t>SAN MIGUEL DE LOS BANCOS</t>
+  </si>
+  <si>
+    <t>PEDRO VICENTE MALDONADO</t>
+  </si>
+  <si>
+    <t>LA LIBERTAD</t>
+  </si>
+  <si>
+    <t>SALINAS</t>
+  </si>
+  <si>
+    <t>LAGO AGRIO ( NUEVA LOJA )</t>
+  </si>
+  <si>
+    <t>SHUSHUFINDI</t>
+  </si>
+  <si>
+    <t>GONZALO PIZARRO</t>
+  </si>
+  <si>
+    <t>CASCALES ( EL DORADO )</t>
+  </si>
+  <si>
+    <t>CUYABENO</t>
+  </si>
+  <si>
+    <t>PUERTO EL CARMEN DE PUTUMAYO</t>
+  </si>
+  <si>
+    <t>AMBATO</t>
+  </si>
+  <si>
+    <t>SAN PEDRO DE PELILEO</t>
+  </si>
+  <si>
+    <t>BANOS DE AGUA SANTA</t>
+  </si>
+  <si>
+    <t>PATATE</t>
+  </si>
+  <si>
+    <t>QUERO</t>
+  </si>
+  <si>
+    <t>TISALEO</t>
+  </si>
+  <si>
+    <t>CEVALLOS</t>
+  </si>
+  <si>
+    <t>MOCHA</t>
+  </si>
+  <si>
+    <t>SANTIAGO DE PILLARO</t>
+  </si>
+  <si>
+    <t>ZAMORA</t>
+  </si>
+  <si>
+    <t>YANTZAZA</t>
+  </si>
+  <si>
+    <t>EL PANGUI</t>
+  </si>
+  <si>
+    <t>CHINCHIPE</t>
+  </si>
+  <si>
+    <t>CENTINELA DEL CONDOR</t>
+  </si>
+  <si>
+    <t>PALANDA</t>
+  </si>
+  <si>
+    <t>PAQUISHA</t>
+  </si>
+  <si>
+    <t>NANGARITZA</t>
+  </si>
+  <si>
+    <t>YACUAMBI</t>
+  </si>
+  <si>
     <t>SANTO DOMINGO DE LOS TSACHILAS</t>
-  </si>
-  <si>
-    <t>SUCUMBIOS</t>
-  </si>
-  <si>
-    <t>TUNGURAHUA</t>
-  </si>
-  <si>
-    <t>ZAMORA CHINCHIPE</t>
-  </si>
-  <si>
-    <t>CUENCA</t>
-  </si>
-  <si>
-    <t>GUALACEO</t>
-  </si>
-  <si>
-    <t>CAMILO PONCE ENRIQUEZ</t>
-  </si>
-  <si>
-    <t>SANTA ISABEL</t>
-  </si>
-  <si>
-    <t>PAUTE</t>
-  </si>
-  <si>
-    <t>SIGSIG</t>
-  </si>
-  <si>
-    <t>GIRON</t>
-  </si>
-  <si>
-    <t>NABON</t>
-  </si>
-  <si>
-    <t>PUCARA</t>
-  </si>
-  <si>
-    <t>CHORDELEG</t>
-  </si>
-  <si>
-    <t>SAN FERNANDO</t>
-  </si>
-  <si>
-    <t>SEVILLA DE ORO</t>
-  </si>
-  <si>
-    <t>GUACHAPALA</t>
-  </si>
-  <si>
-    <t>EL PAN</t>
-  </si>
-  <si>
-    <t>OÑA</t>
-  </si>
-  <si>
-    <t>GUARANDA</t>
-  </si>
-  <si>
-    <t>SAN MIGUEL</t>
-  </si>
-  <si>
-    <t>ECHANDíA</t>
-  </si>
-  <si>
-    <t>CALUMA</t>
-  </si>
-  <si>
-    <t>CHILLANES</t>
-  </si>
-  <si>
-    <t>SAN JOSE DE CHIMBO</t>
-  </si>
-  <si>
-    <t>LAS NAVES</t>
-  </si>
-  <si>
-    <t>TULCAN</t>
-  </si>
-  <si>
-    <t>MONTUFAR</t>
-  </si>
-  <si>
-    <t>ESPEJO</t>
-  </si>
-  <si>
-    <t>MIRA</t>
-  </si>
-  <si>
-    <t>SAN PEDRO DE HUACA</t>
-  </si>
-  <si>
-    <t>AZOGUES</t>
-  </si>
-  <si>
-    <t>LA TRONCAL</t>
-  </si>
-  <si>
-    <t>CANAR</t>
-  </si>
-  <si>
-    <t>BIBLIAN</t>
-  </si>
-  <si>
-    <t>EL TAMBO</t>
-  </si>
-  <si>
-    <t>DELEG</t>
-  </si>
-  <si>
-    <t>SUSCAL</t>
-  </si>
-  <si>
-    <t>RIOBAMBA</t>
-  </si>
-  <si>
-    <t>GUANO</t>
-  </si>
-  <si>
-    <t>CUMANDA</t>
-  </si>
-  <si>
-    <t>ALAUSI</t>
-  </si>
-  <si>
-    <t>COLTA</t>
-  </si>
-  <si>
-    <t>GUAMOTE</t>
-  </si>
-  <si>
-    <t>PALLATANGA</t>
-  </si>
-  <si>
-    <t>CHUNCHI</t>
-  </si>
-  <si>
-    <t>CHAMBO</t>
-  </si>
-  <si>
-    <t>PENIPE</t>
-  </si>
-  <si>
-    <t>LATACUNGA</t>
-  </si>
-  <si>
-    <t>SAN MIGUEL DE SALCEDO</t>
-  </si>
-  <si>
-    <t>LA MANA</t>
-  </si>
-  <si>
-    <t>PUJILI</t>
-  </si>
-  <si>
-    <t>SAQUISILI</t>
-  </si>
-  <si>
-    <t>PANGUA</t>
-  </si>
-  <si>
-    <t>SIGCHOS</t>
-  </si>
-  <si>
-    <t>MACHALA</t>
-  </si>
-  <si>
-    <t>PASAJE</t>
-  </si>
-  <si>
-    <t>SANTA ROSA</t>
-  </si>
-  <si>
-    <t>HUAQUILLAS</t>
-  </si>
-  <si>
-    <t>EL GUABO</t>
-  </si>
-  <si>
-    <t>ARENILLAS</t>
-  </si>
-  <si>
-    <t>PINAS</t>
-  </si>
-  <si>
-    <t>PORTOVELO</t>
-  </si>
-  <si>
-    <t>ZARUMA</t>
-  </si>
-  <si>
-    <t>BALSAS</t>
-  </si>
-  <si>
-    <t>MARCABELI</t>
-  </si>
-  <si>
-    <t>LAS LAJAS</t>
-  </si>
-  <si>
-    <t>ATAHUALPA</t>
-  </si>
-  <si>
-    <t>CHILLA</t>
-  </si>
-  <si>
-    <t>QUININDE</t>
-  </si>
-  <si>
-    <t>ATACAMES</t>
-  </si>
-  <si>
-    <t>SAN LORENZO</t>
-  </si>
-  <si>
-    <t>ELOY ALFARO</t>
-  </si>
-  <si>
-    <t>MUISNE</t>
-  </si>
-  <si>
-    <t>RIO VERDE</t>
-  </si>
-  <si>
-    <t>LA CONCORDIA</t>
-  </si>
-  <si>
-    <t>SANTA CRUZ</t>
-  </si>
-  <si>
-    <t>SAN CRISTOBAL</t>
-  </si>
-  <si>
-    <t>ISABELA</t>
-  </si>
-  <si>
-    <t>GUAYAQUIL</t>
-  </si>
-  <si>
-    <t>DURAN</t>
-  </si>
-  <si>
-    <t>MILAGRO</t>
-  </si>
-  <si>
-    <t>DAULE</t>
-  </si>
-  <si>
-    <t>PLAYAS</t>
-  </si>
-  <si>
-    <t>NARANJAL</t>
-  </si>
-  <si>
-    <t>SAMBORONDON</t>
-  </si>
-  <si>
-    <t>SAN JACINTO DE YAGUACHI</t>
-  </si>
-  <si>
-    <t>EL TRIUNFO</t>
-  </si>
-  <si>
-    <t>PEDRO CARBO</t>
-  </si>
-  <si>
-    <t>NARANJITO</t>
-  </si>
-  <si>
-    <t>BALZAR</t>
-  </si>
-  <si>
-    <t>BALAO</t>
-  </si>
-  <si>
-    <t>SALITRE</t>
-  </si>
-  <si>
-    <t>SANTA LUCIA</t>
-  </si>
-  <si>
-    <t>NOBOL</t>
-  </si>
-  <si>
-    <t>SIMON BOLIVAR</t>
-  </si>
-  <si>
-    <t>LOMAS DE SARGENTILLO</t>
-  </si>
-  <si>
-    <t>PALESTINA</t>
-  </si>
-  <si>
-    <t>COLIMES</t>
-  </si>
-  <si>
-    <t>ISIDRO AYORA</t>
-  </si>
-  <si>
-    <t>ALFREDO BAQUERIZO MORENO ( JUJAN )</t>
-  </si>
-  <si>
-    <t>GENERAL ANTONIO ELIZALDE (BUCAY)</t>
-  </si>
-  <si>
-    <t>EL EMPALME</t>
-  </si>
-  <si>
-    <t>CORONEL MARCELINO MARIDUENA</t>
-  </si>
-  <si>
-    <t>IBARRA</t>
-  </si>
-  <si>
-    <t>OTAVALO</t>
-  </si>
-  <si>
-    <t>ANTONIO ANTE</t>
-  </si>
-  <si>
-    <t>COTACACHI</t>
-  </si>
-  <si>
-    <t>SAN MIGUEL DE URCUQUI</t>
-  </si>
-  <si>
-    <t>PIMAMPIRO</t>
-  </si>
-  <si>
-    <t>CATAMAYO</t>
-  </si>
-  <si>
-    <t>CALVAS</t>
-  </si>
-  <si>
-    <t>MACARA</t>
-  </si>
-  <si>
-    <t>SARAGURO</t>
-  </si>
-  <si>
-    <t>PALTAS</t>
-  </si>
-  <si>
-    <t>GONZANAMA</t>
-  </si>
-  <si>
-    <t>CELICA</t>
-  </si>
-  <si>
-    <t>PUYANGO</t>
-  </si>
-  <si>
-    <t>ZAPOTILLO</t>
-  </si>
-  <si>
-    <t>CHAGUARPAMBA</t>
-  </si>
-  <si>
-    <t>ESPINDOLA</t>
-  </si>
-  <si>
-    <t>PINDAL</t>
-  </si>
-  <si>
-    <t>OLMEDO (LOJA)</t>
-  </si>
-  <si>
-    <t>QUILANGA</t>
-  </si>
-  <si>
-    <t>SOZORANGA</t>
-  </si>
-  <si>
-    <t>QUEVEDO</t>
-  </si>
-  <si>
-    <t>BABAHOYO</t>
-  </si>
-  <si>
-    <t>VENTANAS</t>
-  </si>
-  <si>
-    <t>VINCES</t>
-  </si>
-  <si>
-    <t>VALENCIA</t>
-  </si>
-  <si>
-    <t>PUEBLO VIEJO</t>
-  </si>
-  <si>
-    <t>MOCACHE</t>
-  </si>
-  <si>
-    <t>MONTALVO</t>
-  </si>
-  <si>
-    <t>BABA</t>
-  </si>
-  <si>
-    <t>PALENQUE</t>
-  </si>
-  <si>
-    <t>URDANETA</t>
-  </si>
-  <si>
-    <t>QUINSALOMA</t>
-  </si>
-  <si>
-    <t>SAN JACINTO DE BUENA FE</t>
-  </si>
-  <si>
-    <t>PORTOVIEJO</t>
-  </si>
-  <si>
-    <t>MANTA</t>
-  </si>
-  <si>
-    <t>EL CARMEN</t>
-  </si>
-  <si>
-    <t>CHONE</t>
-  </si>
-  <si>
-    <t>MONTECRISTI</t>
-  </si>
-  <si>
-    <t>PEDERNALES</t>
-  </si>
-  <si>
-    <t>JIPIJAPA</t>
-  </si>
-  <si>
-    <t>SUCRE</t>
-  </si>
-  <si>
-    <t>SANTA ANA</t>
-  </si>
-  <si>
-    <t>ROCAFUERTE</t>
-  </si>
-  <si>
-    <t>SAN VICENTE</t>
-  </si>
-  <si>
-    <t>PAJAN</t>
-  </si>
-  <si>
-    <t>TOSAGUA</t>
-  </si>
-  <si>
-    <t>24 DE MAYO</t>
-  </si>
-  <si>
-    <t>JARAMIJO</t>
-  </si>
-  <si>
-    <t>FLAVIO ALFARO</t>
-  </si>
-  <si>
-    <t>PUERTO LOPEZ</t>
-  </si>
-  <si>
-    <t>JUNIN</t>
-  </si>
-  <si>
-    <t>JAMA</t>
-  </si>
-  <si>
-    <t>OLMEDO</t>
-  </si>
-  <si>
-    <t>BOLIVAR (CALCETA)</t>
-  </si>
-  <si>
-    <t>MORONA</t>
-  </si>
-  <si>
-    <t>SUCUA</t>
-  </si>
-  <si>
-    <t>GUALAQUIZA</t>
-  </si>
-  <si>
-    <t>PALORA ( METZERA )</t>
-  </si>
-  <si>
-    <t>SANTIAGO (MENDEZ)</t>
-  </si>
-  <si>
-    <t>LIMON INDANZA</t>
-  </si>
-  <si>
-    <t>TAISHA</t>
-  </si>
-  <si>
-    <t>HUAMBOYA</t>
-  </si>
-  <si>
-    <t>LOGRONO</t>
-  </si>
-  <si>
-    <t>TIWINTZA</t>
-  </si>
-  <si>
-    <t>SAN JUAN BOSCO</t>
-  </si>
-  <si>
-    <t>PABLO VI</t>
-  </si>
-  <si>
-    <t>TENA</t>
-  </si>
-  <si>
-    <t>ARCHIDONA</t>
-  </si>
-  <si>
-    <t>QUIJOS</t>
-  </si>
-  <si>
-    <t>EL CHACO</t>
-  </si>
-  <si>
-    <t>CARLOS JULIO AROSEMENA TOLA</t>
-  </si>
-  <si>
-    <t>PUERTO FRANCISCO DE ORELLANA</t>
-  </si>
-  <si>
-    <t>LA JOYA DE LOS SACHAS</t>
-  </si>
-  <si>
-    <t>LORETO</t>
-  </si>
-  <si>
-    <t>AGUARICO</t>
-  </si>
-  <si>
-    <t>PASTAZA (PUYO)</t>
-  </si>
-  <si>
-    <t>MERA</t>
-  </si>
-  <si>
-    <t>ARAJUNO</t>
-  </si>
-  <si>
-    <t>SANTA CLARA</t>
-  </si>
-  <si>
-    <t>QUITO</t>
-  </si>
-  <si>
-    <t>RUMINAHUI</t>
-  </si>
-  <si>
-    <t>MEJIA</t>
-  </si>
-  <si>
-    <t>CAYAMBE</t>
-  </si>
-  <si>
-    <t>PEDRO MONCAYO</t>
-  </si>
-  <si>
-    <t>PUERTO QUITO</t>
-  </si>
-  <si>
-    <t>SAN MIGUEL DE LOS BANCOS</t>
-  </si>
-  <si>
-    <t>PEDRO VICENTE MALDONADO</t>
-  </si>
-  <si>
-    <t>LA LIBERTAD</t>
-  </si>
-  <si>
-    <t>SALINAS</t>
-  </si>
-  <si>
-    <t>SANTO DOMINGO</t>
-  </si>
-  <si>
-    <t>LAGO AGRIO ( NUEVA LOJA )</t>
-  </si>
-  <si>
-    <t>SHUSHUFINDI</t>
-  </si>
-  <si>
-    <t>GONZALO PIZARRO</t>
-  </si>
-  <si>
-    <t>CASCALES ( EL DORADO )</t>
-  </si>
-  <si>
-    <t>CUYABENO</t>
-  </si>
-  <si>
-    <t>PUERTO EL CARMEN DE PUTUMAYO</t>
-  </si>
-  <si>
-    <t>AMBATO</t>
-  </si>
-  <si>
-    <t>SAN PEDRO DE PELILEO</t>
-  </si>
-  <si>
-    <t>BANOS DE AGUA SANTA</t>
-  </si>
-  <si>
-    <t>PATATE</t>
-  </si>
-  <si>
-    <t>QUERO</t>
-  </si>
-  <si>
-    <t>TISALEO</t>
-  </si>
-  <si>
-    <t>CEVALLOS</t>
-  </si>
-  <si>
-    <t>MOCHA</t>
-  </si>
-  <si>
-    <t>SANTIAGO DE PILLARO</t>
-  </si>
-  <si>
-    <t>ZAMORA</t>
-  </si>
-  <si>
-    <t>YANTZAZA</t>
-  </si>
-  <si>
-    <t>EL PANGUI</t>
-  </si>
-  <si>
-    <t>CHINCHIPE</t>
-  </si>
-  <si>
-    <t>CENTINELA DEL CONDOR</t>
-  </si>
-  <si>
-    <t>PALANDA</t>
-  </si>
-  <si>
-    <t>PAQUISHA</t>
-  </si>
-  <si>
-    <t>NANGARITZA</t>
-  </si>
-  <si>
-    <t>YACUAMBI</t>
   </si>
 </sst>
 </file>
@@ -1836,6 +1839,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:27">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1923,13 +1929,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F2">
         <v>654431</v>
@@ -1965,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -1995,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="AA2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -2006,13 +2012,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F3">
         <v>50448</v>
@@ -2048,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -2078,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="AA3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -2089,13 +2095,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F4">
         <v>37420</v>
@@ -2131,7 +2137,7 @@
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -2161,7 +2167,7 @@
         <v>3</v>
       </c>
       <c r="AA4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -2172,13 +2178,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F5">
         <v>21508</v>
@@ -2214,7 +2220,7 @@
         <v>3</v>
       </c>
       <c r="Q5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2244,7 +2250,7 @@
         <v>2</v>
       </c>
       <c r="AA5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -2255,13 +2261,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F6">
         <v>30014</v>
@@ -2297,7 +2303,7 @@
         <v>4</v>
       </c>
       <c r="Q6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2327,7 +2333,7 @@
         <v>3</v>
       </c>
       <c r="AA6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -2338,13 +2344,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F7">
         <v>31344</v>
@@ -2380,7 +2386,7 @@
         <v>5</v>
       </c>
       <c r="Q7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -2410,7 +2416,7 @@
         <v>3</v>
       </c>
       <c r="AA7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -2421,13 +2427,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F8">
         <v>13394</v>
@@ -2463,7 +2469,7 @@
         <v>6</v>
       </c>
       <c r="Q8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -2493,7 +2499,7 @@
         <v>2</v>
       </c>
       <c r="AA8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -2504,13 +2510,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F9">
         <v>17765</v>
@@ -2546,7 +2552,7 @@
         <v>7</v>
       </c>
       <c r="Q9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -2576,7 +2582,7 @@
         <v>2</v>
       </c>
       <c r="AA9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -2587,13 +2593,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F10">
         <v>10873</v>
@@ -2629,7 +2635,7 @@
         <v>8</v>
       </c>
       <c r="Q10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2659,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="AA10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -2670,13 +2676,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F11">
         <v>15592</v>
@@ -2712,7 +2718,7 @@
         <v>9</v>
       </c>
       <c r="Q11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -2742,7 +2748,7 @@
         <v>2</v>
       </c>
       <c r="AA11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -2753,13 +2759,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F12">
         <v>4270</v>
@@ -2795,7 +2801,7 @@
         <v>10</v>
       </c>
       <c r="Q12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -2825,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="AA12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -2836,13 +2842,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F13">
         <v>7079</v>
@@ -2878,7 +2884,7 @@
         <v>11</v>
       </c>
       <c r="Q13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -2908,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="AA13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -2919,13 +2925,13 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E14" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F14">
         <v>3964</v>
@@ -2961,7 +2967,7 @@
         <v>12</v>
       </c>
       <c r="Q14" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -2991,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="AA14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -3002,13 +3008,13 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F15">
         <v>3176</v>
@@ -3044,7 +3050,7 @@
         <v>13</v>
       </c>
       <c r="Q15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -3074,7 +3080,7 @@
         <v>2</v>
       </c>
       <c r="AA15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -3085,13 +3091,13 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F16">
         <v>4241</v>
@@ -3127,7 +3133,7 @@
         <v>14</v>
       </c>
       <c r="Q16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -3157,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="AA16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -3168,13 +3174,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F17">
         <v>111740</v>
@@ -3210,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -3240,7 +3246,7 @@
         <v>3</v>
       </c>
       <c r="AA17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -3251,13 +3257,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E18" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F18">
         <v>29798</v>
@@ -3293,7 +3299,7 @@
         <v>1</v>
       </c>
       <c r="Q18" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -3323,7 +3329,7 @@
         <v>3</v>
       </c>
       <c r="AA18" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -3334,13 +3340,13 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E19" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F19">
         <v>14467</v>
@@ -3376,7 +3382,7 @@
         <v>2</v>
       </c>
       <c r="Q19" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -3406,7 +3412,7 @@
         <v>2</v>
       </c>
       <c r="AA19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -3417,13 +3423,13 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F20">
         <v>16879</v>
@@ -3459,7 +3465,7 @@
         <v>3</v>
       </c>
       <c r="Q20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -3489,7 +3495,7 @@
         <v>2</v>
       </c>
       <c r="AA20" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -3500,13 +3506,13 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F21">
         <v>17311</v>
@@ -3542,7 +3548,7 @@
         <v>4</v>
       </c>
       <c r="Q21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -3572,7 +3578,7 @@
         <v>2</v>
       </c>
       <c r="AA21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -3583,13 +3589,13 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F22">
         <v>17853</v>
@@ -3625,7 +3631,7 @@
         <v>5</v>
       </c>
       <c r="Q22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -3655,7 +3661,7 @@
         <v>2</v>
       </c>
       <c r="AA22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -3666,13 +3672,13 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E23" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F23">
         <v>7631</v>
@@ -3708,7 +3714,7 @@
         <v>6</v>
       </c>
       <c r="Q23" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -3738,7 +3744,7 @@
         <v>1</v>
       </c>
       <c r="AA23" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -3749,13 +3755,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E24" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F24">
         <v>105198</v>
@@ -3791,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -3821,7 +3827,7 @@
         <v>2</v>
       </c>
       <c r="AA24" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -3832,13 +3838,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E25" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F25">
         <v>35165</v>
@@ -3874,7 +3880,7 @@
         <v>1</v>
       </c>
       <c r="Q25" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -3904,7 +3910,7 @@
         <v>3</v>
       </c>
       <c r="AA25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -3915,13 +3921,13 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
+        <v>250</v>
+      </c>
+      <c r="E26" t="s">
         <v>249</v>
-      </c>
-      <c r="E26" t="s">
-        <v>248</v>
       </c>
       <c r="F26">
         <v>15953</v>
@@ -3957,7 +3963,7 @@
         <v>2</v>
       </c>
       <c r="Q26" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -3987,7 +3993,7 @@
         <v>2</v>
       </c>
       <c r="AA26" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -3998,13 +4004,13 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E27" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F27">
         <v>14195</v>
@@ -4040,7 +4046,7 @@
         <v>3</v>
       </c>
       <c r="Q27" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -4070,7 +4076,7 @@
         <v>2</v>
       </c>
       <c r="AA27" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -4081,13 +4087,13 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E28" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F28">
         <v>12297</v>
@@ -4123,7 +4129,7 @@
         <v>4</v>
       </c>
       <c r="Q28" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -4153,7 +4159,7 @@
         <v>1</v>
       </c>
       <c r="AA28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -4164,13 +4170,13 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F29">
         <v>9176</v>
@@ -4206,7 +4212,7 @@
         <v>5</v>
       </c>
       <c r="Q29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -4236,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="AA29" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -4247,13 +4253,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E30" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F30">
         <v>88637</v>
@@ -4289,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -4319,7 +4325,7 @@
         <v>2</v>
       </c>
       <c r="AA30" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -4330,13 +4336,13 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E31" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F31">
         <v>78976</v>
@@ -4372,7 +4378,7 @@
         <v>1</v>
       </c>
       <c r="Q31" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R31">
         <v>0</v>
@@ -4402,7 +4408,7 @@
         <v>9</v>
       </c>
       <c r="AA31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -4413,13 +4419,13 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E32" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F32">
         <v>70629</v>
@@ -4455,7 +4461,7 @@
         <v>2</v>
       </c>
       <c r="Q32" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -4485,7 +4491,7 @@
         <v>6</v>
       </c>
       <c r="AA32" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -4496,13 +4502,13 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E33" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F33">
         <v>24391</v>
@@ -4538,7 +4544,7 @@
         <v>3</v>
       </c>
       <c r="Q33" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="R33">
         <v>0</v>
@@ -4568,7 +4574,7 @@
         <v>2</v>
       </c>
       <c r="AA33" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -4579,13 +4585,13 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E34" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F34">
         <v>12803</v>
@@ -4621,7 +4627,7 @@
         <v>4</v>
       </c>
       <c r="Q34" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -4651,7 +4657,7 @@
         <v>2</v>
       </c>
       <c r="AA34" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -4662,13 +4668,13 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E35" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F35">
         <v>6968</v>
@@ -4704,7 +4710,7 @@
         <v>5</v>
       </c>
       <c r="Q35" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -4734,7 +4740,7 @@
         <v>1</v>
       </c>
       <c r="AA35" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -4745,13 +4751,13 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E36" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F36">
         <v>6694</v>
@@ -4787,7 +4793,7 @@
         <v>6</v>
       </c>
       <c r="Q36" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -4817,7 +4823,7 @@
         <v>1</v>
       </c>
       <c r="AA36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -4828,13 +4834,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D37" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E37" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F37">
         <v>271275</v>
@@ -4870,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="R37">
         <v>2</v>
@@ -4900,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="AA37" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -4911,13 +4917,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E38" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F38">
         <v>49720</v>
@@ -4953,7 +4959,7 @@
         <v>1</v>
       </c>
       <c r="Q38" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="R38">
         <v>0</v>
@@ -4983,7 +4989,7 @@
         <v>4</v>
       </c>
       <c r="AA38" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -4994,13 +5000,13 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D39" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E39" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F39">
         <v>18465</v>
@@ -5036,7 +5042,7 @@
         <v>2</v>
       </c>
       <c r="Q39" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="R39">
         <v>0</v>
@@ -5066,7 +5072,7 @@
         <v>2</v>
       </c>
       <c r="AA39" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -5077,13 +5083,13 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D40" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E40" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F40">
         <v>46287</v>
@@ -5119,7 +5125,7 @@
         <v>3</v>
       </c>
       <c r="Q40" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="R40">
         <v>0</v>
@@ -5149,7 +5155,7 @@
         <v>4</v>
       </c>
       <c r="AA40" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:27">
@@ -5160,13 +5166,13 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D41" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E41" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F41">
         <v>46065</v>
@@ -5202,7 +5208,7 @@
         <v>4</v>
       </c>
       <c r="Q41" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R41">
         <v>0</v>
@@ -5232,7 +5238,7 @@
         <v>4</v>
       </c>
       <c r="AA41" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:27">
@@ -5243,13 +5249,13 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D42" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E42" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F42">
         <v>59886</v>
@@ -5285,7 +5291,7 @@
         <v>5</v>
       </c>
       <c r="Q42" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="R42">
         <v>0</v>
@@ -5315,7 +5321,7 @@
         <v>5</v>
       </c>
       <c r="AA42" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:27">
@@ -5326,13 +5332,13 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D43" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E43" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F43">
         <v>12613</v>
@@ -5368,7 +5374,7 @@
         <v>6</v>
       </c>
       <c r="Q43" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -5398,7 +5404,7 @@
         <v>2</v>
       </c>
       <c r="AA43" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:27">
@@ -5409,13 +5415,13 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D44" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E44" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F44">
         <v>13145</v>
@@ -5451,7 +5457,7 @@
         <v>7</v>
       </c>
       <c r="Q44" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="R44">
         <v>0</v>
@@ -5481,7 +5487,7 @@
         <v>2</v>
       </c>
       <c r="AA44" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:27">
@@ -5492,13 +5498,13 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D45" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E45" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F45">
         <v>13744</v>
@@ -5534,7 +5540,7 @@
         <v>8</v>
       </c>
       <c r="Q45" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="R45">
         <v>0</v>
@@ -5564,7 +5570,7 @@
         <v>2</v>
       </c>
       <c r="AA45" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:27">
@@ -5575,13 +5581,13 @@
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D46" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E46" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F46">
         <v>7145</v>
@@ -5617,7 +5623,7 @@
         <v>9</v>
       </c>
       <c r="Q46" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="R46">
         <v>0</v>
@@ -5647,7 +5653,7 @@
         <v>1</v>
       </c>
       <c r="AA46" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:27">
@@ -5658,13 +5664,13 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D47" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E47" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F47">
         <v>211252</v>
@@ -5700,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="R47">
         <v>1</v>
@@ -5730,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="AA47" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:27">
@@ -5741,13 +5747,13 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F48">
         <v>68937</v>
@@ -5783,7 +5789,7 @@
         <v>1</v>
       </c>
       <c r="Q48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R48">
         <v>0</v>
@@ -5813,7 +5819,7 @@
         <v>6</v>
       </c>
       <c r="AA48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="1:27">
@@ -5824,13 +5830,13 @@
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D49" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E49" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F49">
         <v>58462</v>
@@ -5866,7 +5872,7 @@
         <v>2</v>
       </c>
       <c r="Q49" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="R49">
         <v>0</v>
@@ -5896,7 +5902,7 @@
         <v>5</v>
       </c>
       <c r="AA49" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:27">
@@ -5907,13 +5913,13 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D50" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E50" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F50">
         <v>81955</v>
@@ -5949,7 +5955,7 @@
         <v>3</v>
       </c>
       <c r="Q50" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="R50">
         <v>1</v>
@@ -5979,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="AA50" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:27">
@@ -5990,13 +5996,13 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D51" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E51" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F51">
         <v>32286</v>
@@ -6032,7 +6038,7 @@
         <v>4</v>
       </c>
       <c r="Q51" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -6062,7 +6068,7 @@
         <v>3</v>
       </c>
       <c r="AA51" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:27">
@@ -6073,13 +6079,13 @@
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D52" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E52" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F52">
         <v>25286</v>
@@ -6115,7 +6121,7 @@
         <v>5</v>
       </c>
       <c r="Q52" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R52">
         <v>0</v>
@@ -6145,7 +6151,7 @@
         <v>3</v>
       </c>
       <c r="AA52" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="53" spans="1:27">
@@ -6156,13 +6162,13 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D53" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E53" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F53">
         <v>23914</v>
@@ -6198,7 +6204,7 @@
         <v>6</v>
       </c>
       <c r="Q53" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="R53">
         <v>0</v>
@@ -6228,7 +6234,7 @@
         <v>2</v>
       </c>
       <c r="AA53" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="54" spans="1:27">
@@ -6239,13 +6245,13 @@
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D54" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E54" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F54">
         <v>297055</v>
@@ -6281,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="R54">
         <v>2</v>
@@ -6311,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="AA54" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55" spans="1:27">
@@ -6322,13 +6328,13 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D55" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E55" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F55">
         <v>90124</v>
@@ -6364,7 +6370,7 @@
         <v>1</v>
       </c>
       <c r="Q55" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="R55">
         <v>0</v>
@@ -6394,7 +6400,7 @@
         <v>3</v>
       </c>
       <c r="AA55" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:27">
@@ -6405,13 +6411,13 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D56" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E56" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F56">
         <v>84420</v>
@@ -6447,7 +6453,7 @@
         <v>2</v>
       </c>
       <c r="Q56" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R56">
         <v>0</v>
@@ -6477,7 +6483,7 @@
         <v>2</v>
       </c>
       <c r="AA56" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="57" spans="1:27">
@@ -6488,13 +6494,13 @@
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D57" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E57" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F57">
         <v>62094</v>
@@ -6530,7 +6536,7 @@
         <v>3</v>
       </c>
       <c r="Q57" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R57">
         <v>0</v>
@@ -6560,7 +6566,7 @@
         <v>2</v>
       </c>
       <c r="AA57" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:27">
@@ -6571,13 +6577,13 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D58" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E58" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F58">
         <v>65387</v>
@@ -6613,7 +6619,7 @@
         <v>4</v>
       </c>
       <c r="Q58" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -6643,7 +6649,7 @@
         <v>6</v>
       </c>
       <c r="AA58" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="59" spans="1:27">
@@ -6654,13 +6660,13 @@
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D59" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E59" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F59">
         <v>34389</v>
@@ -6696,7 +6702,7 @@
         <v>5</v>
       </c>
       <c r="Q59" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R59">
         <v>0</v>
@@ -6726,7 +6732,7 @@
         <v>3</v>
       </c>
       <c r="AA59" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="60" spans="1:27">
@@ -6737,13 +6743,13 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D60" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E60" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F60">
         <v>31033</v>
@@ -6779,7 +6785,7 @@
         <v>6</v>
       </c>
       <c r="Q60" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="R60">
         <v>0</v>
@@ -6809,7 +6815,7 @@
         <v>3</v>
       </c>
       <c r="AA60" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:27">
@@ -6820,13 +6826,13 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D61" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E61" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F61">
         <v>14412</v>
@@ -6862,7 +6868,7 @@
         <v>7</v>
       </c>
       <c r="Q61" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -6892,7 +6898,7 @@
         <v>2</v>
       </c>
       <c r="AA61" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" spans="1:27">
@@ -6903,13 +6909,13 @@
         <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D62" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E62" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F62">
         <v>26356</v>
@@ -6945,7 +6951,7 @@
         <v>8</v>
       </c>
       <c r="Q62" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="R62">
         <v>0</v>
@@ -6975,7 +6981,7 @@
         <v>3</v>
       </c>
       <c r="AA62" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="63" spans="1:27">
@@ -6986,13 +6992,13 @@
         <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D63" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E63" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F63">
         <v>9486</v>
@@ -7028,7 +7034,7 @@
         <v>9</v>
       </c>
       <c r="Q63" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="R63">
         <v>0</v>
@@ -7058,7 +7064,7 @@
         <v>1</v>
       </c>
       <c r="AA63" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="1:27">
@@ -7069,13 +7075,13 @@
         <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D64" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E64" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F64">
         <v>6430</v>
@@ -7111,7 +7117,7 @@
         <v>10</v>
       </c>
       <c r="Q64" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R64">
         <v>0</v>
@@ -7141,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="AA64" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:27">
@@ -7152,13 +7158,13 @@
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D65" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E65" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F65">
         <v>5099</v>
@@ -7194,7 +7200,7 @@
         <v>11</v>
       </c>
       <c r="Q65" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="R65">
         <v>0</v>
@@ -7224,7 +7230,7 @@
         <v>2</v>
       </c>
       <c r="AA65" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:27">
@@ -7235,13 +7241,13 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D66" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E66" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F66">
         <v>6612</v>
@@ -7277,7 +7283,7 @@
         <v>12</v>
       </c>
       <c r="Q66" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="R66">
         <v>0</v>
@@ -7307,7 +7313,7 @@
         <v>0</v>
       </c>
       <c r="AA66" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67" spans="1:27">
@@ -7318,13 +7324,13 @@
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D67" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E67" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F67">
         <v>2444</v>
@@ -7360,7 +7366,7 @@
         <v>13</v>
       </c>
       <c r="Q67" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R67">
         <v>0</v>
@@ -7390,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AA67" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:27">
@@ -7401,13 +7407,13 @@
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D68" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E68" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F68">
         <v>224713</v>
@@ -7443,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="R68">
         <v>2</v>
@@ -7473,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="AA68" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" spans="1:27">
@@ -7484,13 +7490,13 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E69" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F69">
         <v>149872</v>
@@ -7526,7 +7532,7 @@
         <v>1</v>
       </c>
       <c r="Q69" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R69">
         <v>0</v>
@@ -7556,7 +7562,7 @@
         <v>12</v>
       </c>
       <c r="AA69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:27">
@@ -7567,13 +7573,13 @@
         <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D70" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E70" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F70">
         <v>57014</v>
@@ -7609,7 +7615,7 @@
         <v>2</v>
       </c>
       <c r="Q70" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R70">
         <v>0</v>
@@ -7639,7 +7645,7 @@
         <v>6</v>
       </c>
       <c r="AA70" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:27">
@@ -7650,13 +7656,13 @@
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D71" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E71" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F71">
         <v>64490</v>
@@ -7692,7 +7698,7 @@
         <v>3</v>
       </c>
       <c r="Q71" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="R71">
         <v>0</v>
@@ -7722,7 +7728,7 @@
         <v>6</v>
       </c>
       <c r="AA71" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="1:27">
@@ -7733,13 +7739,13 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D72" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E72" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F72">
         <v>46878</v>
@@ -7775,7 +7781,7 @@
         <v>4</v>
       </c>
       <c r="Q72" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="R72">
         <v>0</v>
@@ -7805,7 +7811,7 @@
         <v>4</v>
       </c>
       <c r="AA72" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="1:27">
@@ -7816,13 +7822,13 @@
         <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D73" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E73" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F73">
         <v>31957</v>
@@ -7858,7 +7864,7 @@
         <v>5</v>
       </c>
       <c r="Q73" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="R73">
         <v>0</v>
@@ -7888,7 +7894,7 @@
         <v>3</v>
       </c>
       <c r="AA73" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="1:27">
@@ -7899,13 +7905,13 @@
         <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D74" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E74" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F74">
         <v>32336</v>
@@ -7941,7 +7947,7 @@
         <v>6</v>
       </c>
       <c r="Q74" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="R74">
         <v>0</v>
@@ -7971,7 +7977,7 @@
         <v>3</v>
       </c>
       <c r="AA74" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:27">
@@ -7982,13 +7988,13 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D75" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E75" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F75">
         <v>54010</v>
@@ -8024,7 +8030,7 @@
         <v>7</v>
       </c>
       <c r="Q75" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="R75">
         <v>0</v>
@@ -8054,7 +8060,7 @@
         <v>5</v>
       </c>
       <c r="AA75" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="76" spans="1:27">
@@ -8065,13 +8071,13 @@
         <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D76" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E76" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F76">
         <v>20857</v>
@@ -8107,7 +8113,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="R76">
         <v>0</v>
@@ -8137,7 +8143,7 @@
         <v>3</v>
       </c>
       <c r="AA76" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:27">
@@ -8148,13 +8154,13 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D77" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E77" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F77">
         <v>9932</v>
@@ -8190,7 +8196,7 @@
         <v>1</v>
       </c>
       <c r="Q77" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="R77">
         <v>0</v>
@@ -8220,7 +8226,7 @@
         <v>2</v>
       </c>
       <c r="AA77" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:27">
@@ -8231,13 +8237,13 @@
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D78" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E78" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F78">
         <v>3157</v>
@@ -8273,7 +8279,7 @@
         <v>2</v>
       </c>
       <c r="Q78" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="R78">
         <v>0</v>
@@ -8303,7 +8309,7 @@
         <v>1</v>
       </c>
       <c r="AA78" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:27">
@@ -8314,13 +8320,13 @@
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D79" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E79" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F79">
         <v>2798212</v>
@@ -8356,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="R79">
         <v>11</v>
@@ -8386,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="AA79" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:27">
@@ -8397,13 +8403,13 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D80" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E80" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F80">
         <v>324366</v>
@@ -8439,7 +8445,7 @@
         <v>1</v>
       </c>
       <c r="Q80" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="R80">
         <v>2</v>
@@ -8469,7 +8475,7 @@
         <v>0</v>
       </c>
       <c r="AA80" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="81" spans="1:27">
@@ -8480,13 +8486,13 @@
         <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D81" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E81" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F81">
         <v>205304</v>
@@ -8522,7 +8528,7 @@
         <v>2</v>
       </c>
       <c r="Q81" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="R81">
         <v>0</v>
@@ -8552,7 +8558,7 @@
         <v>17</v>
       </c>
       <c r="AA81" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="1:27">
@@ -8563,13 +8569,13 @@
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D82" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E82" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F82">
         <v>178438</v>
@@ -8605,7 +8611,7 @@
         <v>3</v>
       </c>
       <c r="Q82" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -8635,7 +8641,7 @@
         <v>15</v>
       </c>
       <c r="AA82" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="83" spans="1:27">
@@ -8646,13 +8652,13 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D83" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E83" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F83">
         <v>61260</v>
@@ -8688,7 +8694,7 @@
         <v>4</v>
       </c>
       <c r="Q83" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="R83">
         <v>0</v>
@@ -8718,7 +8724,7 @@
         <v>8</v>
       </c>
       <c r="AA83" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="84" spans="1:27">
@@ -8729,13 +8735,13 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D84" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E84" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F84">
         <v>97653</v>
@@ -8771,7 +8777,7 @@
         <v>5</v>
       </c>
       <c r="Q84" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="R84">
         <v>0</v>
@@ -8801,7 +8807,7 @@
         <v>9</v>
       </c>
       <c r="AA84" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="85" spans="1:27">
@@ -8812,13 +8818,13 @@
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D85" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E85" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F85">
         <v>105206</v>
@@ -8854,7 +8860,7 @@
         <v>6</v>
       </c>
       <c r="Q85" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="R85">
         <v>0</v>
@@ -8884,7 +8890,7 @@
         <v>9</v>
       </c>
       <c r="AA85" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="86" spans="1:27">
@@ -8895,13 +8901,13 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D86" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E86" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F86">
         <v>80344</v>
@@ -8937,7 +8943,7 @@
         <v>7</v>
       </c>
       <c r="Q86" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="R86">
         <v>0</v>
@@ -8967,7 +8973,7 @@
         <v>7</v>
       </c>
       <c r="AA86" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="87" spans="1:27">
@@ -8978,13 +8984,13 @@
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D87" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E87" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F87">
         <v>61268</v>
@@ -9020,7 +9026,7 @@
         <v>8</v>
       </c>
       <c r="Q87" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="R87">
         <v>0</v>
@@ -9050,7 +9056,7 @@
         <v>5</v>
       </c>
       <c r="AA87" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" spans="1:27">
@@ -9061,13 +9067,13 @@
         <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D88" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E88" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F88">
         <v>53220</v>
@@ -9103,7 +9109,7 @@
         <v>9</v>
       </c>
       <c r="Q88" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="R88">
         <v>0</v>
@@ -9133,7 +9139,7 @@
         <v>5</v>
       </c>
       <c r="AA88" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="89" spans="1:27">
@@ -9144,13 +9150,13 @@
         <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D89" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E89" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F89">
         <v>45063</v>
@@ -9186,7 +9192,7 @@
         <v>10</v>
       </c>
       <c r="Q89" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="R89">
         <v>0</v>
@@ -9216,7 +9222,7 @@
         <v>4</v>
       </c>
       <c r="AA89" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" spans="1:27">
@@ -9227,13 +9233,13 @@
         <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D90" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E90" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F90">
         <v>61909</v>
@@ -9269,7 +9275,7 @@
         <v>11</v>
       </c>
       <c r="Q90" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="R90">
         <v>0</v>
@@ -9299,7 +9305,7 @@
         <v>5</v>
       </c>
       <c r="AA90" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="91" spans="1:27">
@@ -9310,13 +9316,13 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D91" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E91" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F91">
         <v>27069</v>
@@ -9352,7 +9358,7 @@
         <v>12</v>
       </c>
       <c r="Q91" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="R91">
         <v>0</v>
@@ -9382,7 +9388,7 @@
         <v>4</v>
       </c>
       <c r="AA91" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="92" spans="1:27">
@@ -9393,13 +9399,13 @@
         <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D92" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E92" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F92">
         <v>67565</v>
@@ -9435,7 +9441,7 @@
         <v>13</v>
       </c>
       <c r="Q92" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="R92">
         <v>0</v>
@@ -9465,7 +9471,7 @@
         <v>6</v>
       </c>
       <c r="AA92" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="93" spans="1:27">
@@ -9476,13 +9482,13 @@
         <v>14</v>
       </c>
       <c r="C93" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D93" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E93" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F93">
         <v>46236</v>
@@ -9518,7 +9524,7 @@
         <v>14</v>
       </c>
       <c r="Q93" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -9548,7 +9554,7 @@
         <v>4</v>
       </c>
       <c r="AA93" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="94" spans="1:27">
@@ -9559,13 +9565,13 @@
         <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D94" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E94" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F94">
         <v>27167</v>
@@ -9601,7 +9607,7 @@
         <v>15</v>
       </c>
       <c r="Q94" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="R94">
         <v>0</v>
@@ -9631,7 +9637,7 @@
         <v>3</v>
       </c>
       <c r="AA94" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="95" spans="1:27">
@@ -9642,13 +9648,13 @@
         <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D95" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E95" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F95">
         <v>33106</v>
@@ -9684,7 +9690,7 @@
         <v>16</v>
       </c>
       <c r="Q95" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="R95">
         <v>0</v>
@@ -9714,7 +9720,7 @@
         <v>3</v>
       </c>
       <c r="AA95" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="96" spans="1:27">
@@ -9725,13 +9731,13 @@
         <v>17</v>
       </c>
       <c r="C96" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D96" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E96" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F96">
         <v>24883</v>
@@ -9767,7 +9773,7 @@
         <v>17</v>
       </c>
       <c r="Q96" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R96">
         <v>0</v>
@@ -9797,7 +9803,7 @@
         <v>2</v>
       </c>
       <c r="AA96" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97" spans="1:27">
@@ -9808,13 +9814,13 @@
         <v>18</v>
       </c>
       <c r="C97" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D97" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E97" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F97">
         <v>18956</v>
@@ -9850,7 +9856,7 @@
         <v>18</v>
       </c>
       <c r="Q97" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R97">
         <v>0</v>
@@ -9880,7 +9886,7 @@
         <v>2</v>
       </c>
       <c r="AA97" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" spans="1:27">
@@ -9891,13 +9897,13 @@
         <v>19</v>
       </c>
       <c r="C98" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D98" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E98" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F98">
         <v>26885</v>
@@ -9933,7 +9939,7 @@
         <v>19</v>
       </c>
       <c r="Q98" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="R98">
         <v>0</v>
@@ -9963,7 +9969,7 @@
         <v>3</v>
       </c>
       <c r="AA98" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="99" spans="1:27">
@@ -9974,13 +9980,13 @@
         <v>20</v>
       </c>
       <c r="C99" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D99" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E99" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F99">
         <v>14981</v>
@@ -10016,7 +10022,7 @@
         <v>20</v>
       </c>
       <c r="Q99" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="R99">
         <v>0</v>
@@ -10046,7 +10052,7 @@
         <v>2</v>
       </c>
       <c r="AA99" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="100" spans="1:27">
@@ -10057,13 +10063,13 @@
         <v>21</v>
       </c>
       <c r="C100" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D100" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E100" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F100">
         <v>32988</v>
@@ -10099,7 +10105,7 @@
         <v>21</v>
       </c>
       <c r="Q100" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="R100">
         <v>0</v>
@@ -10129,7 +10135,7 @@
         <v>12</v>
       </c>
       <c r="AA100" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="101" spans="1:27">
@@ -10140,13 +10146,13 @@
         <v>22</v>
       </c>
       <c r="C101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D101" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E101" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F101">
         <v>13516</v>
@@ -10182,7 +10188,7 @@
         <v>22</v>
       </c>
       <c r="Q101" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="R101">
         <v>0</v>
@@ -10212,7 +10218,7 @@
         <v>0</v>
       </c>
       <c r="AA101" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="102" spans="1:27">
@@ -10223,13 +10229,13 @@
         <v>23</v>
       </c>
       <c r="C102" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D102" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E102" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F102">
         <v>88428</v>
@@ -10265,7 +10271,7 @@
         <v>23</v>
       </c>
       <c r="Q102" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="R102">
         <v>0</v>
@@ -10295,7 +10301,7 @@
         <v>0</v>
       </c>
       <c r="AA102" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="103" spans="1:27">
@@ -10306,13 +10312,13 @@
         <v>24</v>
       </c>
       <c r="C103" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D103" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E103" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F103">
         <v>13492</v>
@@ -10348,7 +10354,7 @@
         <v>24</v>
       </c>
       <c r="Q103" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="R103">
         <v>0</v>
@@ -10378,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="AA103" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="104" spans="1:27">
@@ -10389,13 +10395,13 @@
         <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D104" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E104" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F104">
         <v>227201</v>
@@ -10431,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="Q104" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="R104">
         <v>1</v>
@@ -10461,7 +10467,7 @@
         <v>0</v>
       </c>
       <c r="AA104" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="105" spans="1:27">
@@ -10472,13 +10478,13 @@
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D105" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E105" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F105">
         <v>129227</v>
@@ -10514,7 +10520,7 @@
         <v>1</v>
       </c>
       <c r="Q105" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="R105">
         <v>0</v>
@@ -10544,7 +10550,7 @@
         <v>11</v>
       </c>
       <c r="AA105" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="106" spans="1:27">
@@ -10555,13 +10561,13 @@
         <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D106" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E106" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F106">
         <v>55797</v>
@@ -10597,7 +10603,7 @@
         <v>2</v>
       </c>
       <c r="Q106" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="R106">
         <v>0</v>
@@ -10627,7 +10633,7 @@
         <v>5</v>
       </c>
       <c r="AA106" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="107" spans="1:27">
@@ -10638,13 +10644,13 @@
         <v>3</v>
       </c>
       <c r="C107" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D107" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E107" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F107">
         <v>45413</v>
@@ -10680,7 +10686,7 @@
         <v>3</v>
       </c>
       <c r="Q107" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="R107">
         <v>0</v>
@@ -10710,7 +10716,7 @@
         <v>4</v>
       </c>
       <c r="AA107" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="108" spans="1:27">
@@ -10721,13 +10727,13 @@
         <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D108" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E108" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F108">
         <v>18020</v>
@@ -10763,7 +10769,7 @@
         <v>4</v>
       </c>
       <c r="Q108" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="R108">
         <v>0</v>
@@ -10793,7 +10799,7 @@
         <v>2</v>
       </c>
       <c r="AA108" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="109" spans="1:27">
@@ -10804,13 +10810,13 @@
         <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D109" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E109" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F109">
         <v>13632</v>
@@ -10846,7 +10852,7 @@
         <v>5</v>
       </c>
       <c r="Q109" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="R109">
         <v>0</v>
@@ -10876,7 +10882,7 @@
         <v>2</v>
       </c>
       <c r="AA109" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="110" spans="1:27">
@@ -10887,13 +10893,13 @@
         <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D110" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E110" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F110">
         <v>281614</v>
@@ -10929,7 +10935,7 @@
         <v>0</v>
       </c>
       <c r="Q110" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="R110">
         <v>3</v>
@@ -10959,7 +10965,7 @@
         <v>0</v>
       </c>
       <c r="AA110" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="111" spans="1:27">
@@ -10970,13 +10976,13 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D111" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E111" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F111">
         <v>36946</v>
@@ -11012,7 +11018,7 @@
         <v>1</v>
       </c>
       <c r="Q111" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="R111">
         <v>0</v>
@@ -11042,7 +11048,7 @@
         <v>3</v>
       </c>
       <c r="AA111" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="112" spans="1:27">
@@ -11053,13 +11059,13 @@
         <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D112" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E112" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F112">
         <v>30374</v>
@@ -11095,7 +11101,7 @@
         <v>2</v>
       </c>
       <c r="Q112" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="R112">
         <v>0</v>
@@ -11125,7 +11131,7 @@
         <v>3</v>
       </c>
       <c r="AA112" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="113" spans="1:27">
@@ -11136,13 +11142,13 @@
         <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D113" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E113" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F113">
         <v>20824</v>
@@ -11178,7 +11184,7 @@
         <v>3</v>
       </c>
       <c r="Q113" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="R113">
         <v>0</v>
@@ -11208,7 +11214,7 @@
         <v>2</v>
       </c>
       <c r="AA113" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="114" spans="1:27">
@@ -11219,13 +11225,13 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D114" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E114" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F114">
         <v>34423</v>
@@ -11261,7 +11267,7 @@
         <v>4</v>
       </c>
       <c r="Q114" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="R114">
         <v>1</v>
@@ -11291,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="AA114" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="115" spans="1:27">
@@ -11302,13 +11308,13 @@
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D115" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E115" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F115">
         <v>24113</v>
@@ -11344,7 +11350,7 @@
         <v>5</v>
       </c>
       <c r="Q115" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="R115">
         <v>0</v>
@@ -11374,7 +11380,7 @@
         <v>2</v>
       </c>
       <c r="AA115" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="116" spans="1:27">
@@ -11385,13 +11391,13 @@
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D116" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E116" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F116">
         <v>11253</v>
@@ -11427,7 +11433,7 @@
         <v>6</v>
       </c>
       <c r="Q116" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="R116">
         <v>0</v>
@@ -11457,7 +11463,7 @@
         <v>1</v>
       </c>
       <c r="AA116" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="117" spans="1:27">
@@ -11468,13 +11474,13 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D117" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E117" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F117">
         <v>16602</v>
@@ -11510,7 +11516,7 @@
         <v>7</v>
       </c>
       <c r="Q117" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="R117">
         <v>0</v>
@@ -11540,7 +11546,7 @@
         <v>2</v>
       </c>
       <c r="AA117" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="118" spans="1:27">
@@ -11551,13 +11557,13 @@
         <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D118" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E118" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F118">
         <v>16361</v>
@@ -11593,7 +11599,7 @@
         <v>8</v>
       </c>
       <c r="Q118" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="R118">
         <v>0</v>
@@ -11623,7 +11629,7 @@
         <v>2</v>
       </c>
       <c r="AA118" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="119" spans="1:27">
@@ -11634,13 +11640,13 @@
         <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D119" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E119" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F119">
         <v>14717</v>
@@ -11676,7 +11682,7 @@
         <v>9</v>
       </c>
       <c r="Q119" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="R119">
         <v>0</v>
@@ -11706,7 +11712,7 @@
         <v>2</v>
       </c>
       <c r="AA119" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="120" spans="1:27">
@@ -11717,13 +11723,13 @@
         <v>10</v>
       </c>
       <c r="C120" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D120" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E120" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F120">
         <v>6801</v>
@@ -11759,7 +11765,7 @@
         <v>10</v>
       </c>
       <c r="Q120" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="R120">
         <v>0</v>
@@ -11789,7 +11795,7 @@
         <v>1</v>
       </c>
       <c r="AA120" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="121" spans="1:27">
@@ -11800,13 +11806,13 @@
         <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D121" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E121" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F121">
         <v>14598</v>
@@ -11842,7 +11848,7 @@
         <v>11</v>
       </c>
       <c r="Q121" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="R121">
         <v>0</v>
@@ -11872,7 +11878,7 @@
         <v>0</v>
       </c>
       <c r="AA121" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="122" spans="1:27">
@@ -11883,13 +11889,13 @@
         <v>12</v>
       </c>
       <c r="C122" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D122" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E122" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F122">
         <v>10829</v>
@@ -11925,7 +11931,7 @@
         <v>12</v>
       </c>
       <c r="Q122" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="R122">
         <v>0</v>
@@ -11955,7 +11961,7 @@
         <v>0</v>
       </c>
       <c r="AA122" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="123" spans="1:27">
@@ -11966,13 +11972,13 @@
         <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D123" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E123" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F123">
         <v>4336</v>
@@ -12008,7 +12014,7 @@
         <v>13</v>
       </c>
       <c r="Q123" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="R123">
         <v>0</v>
@@ -12038,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="AA123" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="124" spans="1:27">
@@ -12049,13 +12055,13 @@
         <v>14</v>
       </c>
       <c r="C124" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D124" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E124" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F124">
         <v>4312</v>
@@ -12091,7 +12097,7 @@
         <v>14</v>
       </c>
       <c r="Q124" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="R124">
         <v>0</v>
@@ -12121,7 +12127,7 @@
         <v>0</v>
       </c>
       <c r="AA124" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="125" spans="1:27">
@@ -12132,13 +12138,13 @@
         <v>15</v>
       </c>
       <c r="C125" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D125" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E125" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F125">
         <v>7316</v>
@@ -12174,7 +12180,7 @@
         <v>15</v>
       </c>
       <c r="Q125" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="R125">
         <v>0</v>
@@ -12204,7 +12210,7 @@
         <v>4</v>
       </c>
       <c r="AA125" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="126" spans="1:27">
@@ -12215,13 +12221,13 @@
         <v>0</v>
       </c>
       <c r="C126" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D126" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E126" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F126">
         <v>219694</v>
@@ -12257,7 +12263,7 @@
         <v>0</v>
       </c>
       <c r="Q126" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="R126">
         <v>2</v>
@@ -12287,7 +12293,7 @@
         <v>0</v>
       </c>
       <c r="AA126" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="127" spans="1:27">
@@ -12298,13 +12304,13 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D127" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E127" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F127">
         <v>180078</v>
@@ -12340,7 +12346,7 @@
         <v>1</v>
       </c>
       <c r="Q127" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R127">
         <v>1</v>
@@ -12370,7 +12376,7 @@
         <v>0</v>
       </c>
       <c r="AA127" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="128" spans="1:27">
@@ -12381,13 +12387,13 @@
         <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D128" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E128" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F128">
         <v>77203</v>
@@ -12423,7 +12429,7 @@
         <v>2</v>
       </c>
       <c r="Q128" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="R128">
         <v>0</v>
@@ -12453,7 +12459,7 @@
         <v>7</v>
       </c>
       <c r="AA128" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="129" spans="1:27">
@@ -12464,13 +12470,13 @@
         <v>3</v>
       </c>
       <c r="C129" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D129" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E129" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F129">
         <v>84583</v>
@@ -12506,7 +12512,7 @@
         <v>3</v>
       </c>
       <c r="Q129" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="R129">
         <v>0</v>
@@ -12536,7 +12542,7 @@
         <v>7</v>
       </c>
       <c r="AA129" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="130" spans="1:27">
@@ -12547,13 +12553,13 @@
         <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D130" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E130" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F130">
         <v>56133</v>
@@ -12589,7 +12595,7 @@
         <v>4</v>
       </c>
       <c r="Q130" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="R130">
         <v>0</v>
@@ -12619,7 +12625,7 @@
         <v>5</v>
       </c>
       <c r="AA130" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="131" spans="1:27">
@@ -12630,13 +12636,13 @@
         <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D131" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E131" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F131">
         <v>45949</v>
@@ -12672,7 +12678,7 @@
         <v>5</v>
       </c>
       <c r="Q131" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="R131">
         <v>0</v>
@@ -12702,7 +12708,7 @@
         <v>4</v>
       </c>
       <c r="AA131" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="132" spans="1:27">
@@ -12713,13 +12719,13 @@
         <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D132" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E132" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F132">
         <v>44502</v>
@@ -12755,7 +12761,7 @@
         <v>6</v>
       </c>
       <c r="Q132" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="R132">
         <v>0</v>
@@ -12785,7 +12791,7 @@
         <v>4</v>
       </c>
       <c r="AA132" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="133" spans="1:27">
@@ -12796,13 +12802,13 @@
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D133" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E133" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F133">
         <v>29506</v>
@@ -12838,7 +12844,7 @@
         <v>7</v>
       </c>
       <c r="Q133" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="R133">
         <v>0</v>
@@ -12868,7 +12874,7 @@
         <v>3</v>
       </c>
       <c r="AA133" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="134" spans="1:27">
@@ -12879,13 +12885,13 @@
         <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D134" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E134" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F134">
         <v>44618</v>
@@ -12921,7 +12927,7 @@
         <v>8</v>
       </c>
       <c r="Q134" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R134">
         <v>0</v>
@@ -12951,7 +12957,7 @@
         <v>4</v>
       </c>
       <c r="AA134" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="135" spans="1:27">
@@ -12962,13 +12968,13 @@
         <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D135" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E135" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F135">
         <v>24285</v>
@@ -13004,7 +13010,7 @@
         <v>9</v>
       </c>
       <c r="Q135" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="R135">
         <v>0</v>
@@ -13034,7 +13040,7 @@
         <v>2</v>
       </c>
       <c r="AA135" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:27">
@@ -13045,13 +13051,13 @@
         <v>10</v>
       </c>
       <c r="C136" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D136" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E136" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F136">
         <v>33510</v>
@@ -13087,7 +13093,7 @@
         <v>10</v>
       </c>
       <c r="Q136" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="R136">
         <v>0</v>
@@ -13117,7 +13123,7 @@
         <v>3</v>
       </c>
       <c r="AA136" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="137" spans="1:27">
@@ -13128,13 +13134,13 @@
         <v>11</v>
       </c>
       <c r="C137" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D137" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E137" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F137">
         <v>20987</v>
@@ -13170,7 +13176,7 @@
         <v>11</v>
       </c>
       <c r="Q137" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="R137">
         <v>0</v>
@@ -13200,7 +13206,7 @@
         <v>2</v>
       </c>
       <c r="AA137" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="138" spans="1:27">
@@ -13211,13 +13217,13 @@
         <v>12</v>
       </c>
       <c r="C138" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D138" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E138" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F138">
         <v>85943</v>
@@ -13253,7 +13259,7 @@
         <v>12</v>
       </c>
       <c r="Q138" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="R138">
         <v>0</v>
@@ -13283,7 +13289,7 @@
         <v>7</v>
       </c>
       <c r="AA138" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="139" spans="1:27">
@@ -13294,13 +13300,13 @@
         <v>0</v>
       </c>
       <c r="C139" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D139" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E139" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F139">
         <v>330607</v>
@@ -13336,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="Q139" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="R139">
         <v>1</v>
@@ -13366,7 +13372,7 @@
         <v>0</v>
       </c>
       <c r="AA139" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="140" spans="1:27">
@@ -13377,13 +13383,13 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D140" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E140" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F140">
         <v>271514</v>
@@ -13419,7 +13425,7 @@
         <v>1</v>
       </c>
       <c r="Q140" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="R140">
         <v>1</v>
@@ -13449,7 +13455,7 @@
         <v>0</v>
       </c>
       <c r="AA140" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="141" spans="1:27">
@@ -13460,13 +13466,13 @@
         <v>2</v>
       </c>
       <c r="C141" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D141" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E141" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F141">
         <v>114392</v>
@@ -13502,7 +13508,7 @@
         <v>2</v>
       </c>
       <c r="Q141" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="R141">
         <v>0</v>
@@ -13532,7 +13538,7 @@
         <v>10</v>
       </c>
       <c r="AA141" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="142" spans="1:27">
@@ -13543,13 +13549,13 @@
         <v>3</v>
       </c>
       <c r="C142" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D142" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E142" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F142">
         <v>134587</v>
@@ -13585,7 +13591,7 @@
         <v>3</v>
       </c>
       <c r="Q142" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="R142">
         <v>0</v>
@@ -13615,7 +13621,7 @@
         <v>11</v>
       </c>
       <c r="AA142" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="143" spans="1:27">
@@ -13626,13 +13632,13 @@
         <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D143" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E143" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F143">
         <v>110735</v>
@@ -13668,7 +13674,7 @@
         <v>4</v>
       </c>
       <c r="Q143" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="R143">
         <v>1</v>
@@ -13698,7 +13704,7 @@
         <v>0</v>
       </c>
       <c r="AA143" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="144" spans="1:27">
@@ -13709,13 +13715,13 @@
         <v>5</v>
       </c>
       <c r="C144" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D144" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E144" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F144">
         <v>65178</v>
@@ -13751,7 +13757,7 @@
         <v>5</v>
       </c>
       <c r="Q144" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="R144">
         <v>0</v>
@@ -13781,7 +13787,7 @@
         <v>6</v>
       </c>
       <c r="AA144" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="145" spans="1:27">
@@ -13792,13 +13798,13 @@
         <v>6</v>
       </c>
       <c r="C145" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D145" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E145" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F145">
         <v>76688</v>
@@ -13834,7 +13840,7 @@
         <v>6</v>
       </c>
       <c r="Q145" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="R145">
         <v>0</v>
@@ -13864,7 +13870,7 @@
         <v>7</v>
       </c>
       <c r="AA145" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="146" spans="1:27">
@@ -13875,13 +13881,13 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D146" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E146" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F146">
         <v>64152</v>
@@ -13917,7 +13923,7 @@
         <v>7</v>
       </c>
       <c r="Q146" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="R146">
         <v>1</v>
@@ -13947,7 +13953,7 @@
         <v>0</v>
       </c>
       <c r="AA146" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="147" spans="1:27">
@@ -13958,13 +13964,13 @@
         <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D147" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E147" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F147">
         <v>49470</v>
@@ -14000,7 +14006,7 @@
         <v>8</v>
       </c>
       <c r="Q147" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="R147">
         <v>0</v>
@@ -14030,7 +14036,7 @@
         <v>4</v>
       </c>
       <c r="AA147" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="148" spans="1:27">
@@ -14041,13 +14047,13 @@
         <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D148" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E148" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F148">
         <v>38334</v>
@@ -14083,7 +14089,7 @@
         <v>9</v>
       </c>
       <c r="Q148" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="R148">
         <v>0</v>
@@ -14113,7 +14119,7 @@
         <v>4</v>
       </c>
       <c r="AA148" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="149" spans="1:27">
@@ -14124,13 +14130,13 @@
         <v>10</v>
       </c>
       <c r="C149" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D149" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E149" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F149">
         <v>25478</v>
@@ -14166,7 +14172,7 @@
         <v>10</v>
       </c>
       <c r="Q149" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="R149">
         <v>0</v>
@@ -14196,7 +14202,7 @@
         <v>3</v>
       </c>
       <c r="AA149" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="150" spans="1:27">
@@ -14207,13 +14213,13 @@
         <v>11</v>
       </c>
       <c r="C150" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D150" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E150" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F150">
         <v>38108</v>
@@ -14249,7 +14255,7 @@
         <v>11</v>
       </c>
       <c r="Q150" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="R150">
         <v>0</v>
@@ -14279,7 +14285,7 @@
         <v>4</v>
       </c>
       <c r="AA150" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="151" spans="1:27">
@@ -14290,13 +14296,13 @@
         <v>12</v>
       </c>
       <c r="C151" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D151" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E151" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F151">
         <v>43455</v>
@@ -14332,7 +14338,7 @@
         <v>12</v>
       </c>
       <c r="Q151" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="R151">
         <v>0</v>
@@ -14362,7 +14368,7 @@
         <v>4</v>
       </c>
       <c r="AA151" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="152" spans="1:27">
@@ -14373,13 +14379,13 @@
         <v>13</v>
       </c>
       <c r="C152" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D152" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E152" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F152">
         <v>30409</v>
@@ -14415,7 +14421,7 @@
         <v>13</v>
       </c>
       <c r="Q152" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="R152">
         <v>0</v>
@@ -14445,7 +14451,7 @@
         <v>3</v>
       </c>
       <c r="AA152" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="153" spans="1:27">
@@ -14456,13 +14462,13 @@
         <v>14</v>
       </c>
       <c r="C153" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D153" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E153" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F153">
         <v>29295</v>
@@ -14498,7 +14504,7 @@
         <v>14</v>
       </c>
       <c r="Q153" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="R153">
         <v>0</v>
@@ -14528,7 +14534,7 @@
         <v>3</v>
       </c>
       <c r="AA153" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="154" spans="1:27">
@@ -14539,13 +14545,13 @@
         <v>15</v>
       </c>
       <c r="C154" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D154" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E154" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F154">
         <v>29217</v>
@@ -14581,7 +14587,7 @@
         <v>15</v>
       </c>
       <c r="Q154" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="R154">
         <v>0</v>
@@ -14611,7 +14617,7 @@
         <v>3</v>
       </c>
       <c r="AA154" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="155" spans="1:27">
@@ -14622,13 +14628,13 @@
         <v>16</v>
       </c>
       <c r="C155" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D155" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E155" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F155">
         <v>24474</v>
@@ -14664,7 +14670,7 @@
         <v>16</v>
       </c>
       <c r="Q155" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="R155">
         <v>0</v>
@@ -14694,7 +14700,7 @@
         <v>2</v>
       </c>
       <c r="AA155" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="156" spans="1:27">
@@ -14705,13 +14711,13 @@
         <v>17</v>
       </c>
       <c r="C156" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D156" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E156" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F156">
         <v>25364</v>
@@ -14747,7 +14753,7 @@
         <v>17</v>
       </c>
       <c r="Q156" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="R156">
         <v>0</v>
@@ -14777,7 +14783,7 @@
         <v>3</v>
       </c>
       <c r="AA156" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="157" spans="1:27">
@@ -14788,13 +14794,13 @@
         <v>18</v>
       </c>
       <c r="C157" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D157" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E157" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F157">
         <v>19335</v>
@@ -14830,7 +14836,7 @@
         <v>18</v>
       </c>
       <c r="Q157" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="R157">
         <v>0</v>
@@ -14860,7 +14866,7 @@
         <v>2</v>
       </c>
       <c r="AA157" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="158" spans="1:27">
@@ -14871,13 +14877,13 @@
         <v>19</v>
       </c>
       <c r="C158" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D158" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E158" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F158">
         <v>26831</v>
@@ -14913,7 +14919,7 @@
         <v>19</v>
       </c>
       <c r="Q158" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="R158">
         <v>0</v>
@@ -14943,7 +14949,7 @@
         <v>3</v>
       </c>
       <c r="AA158" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="159" spans="1:27">
@@ -14954,13 +14960,13 @@
         <v>20</v>
       </c>
       <c r="C159" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D159" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E159" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F159">
         <v>10473</v>
@@ -14996,7 +15002,7 @@
         <v>20</v>
       </c>
       <c r="Q159" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="R159">
         <v>0</v>
@@ -15026,7 +15032,7 @@
         <v>1</v>
       </c>
       <c r="AA159" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="160" spans="1:27">
@@ -15037,13 +15043,13 @@
         <v>21</v>
       </c>
       <c r="C160" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D160" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E160" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F160">
         <v>46738</v>
@@ -15079,7 +15085,7 @@
         <v>21</v>
       </c>
       <c r="Q160" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="R160">
         <v>0</v>
@@ -15109,7 +15115,7 @@
         <v>4</v>
       </c>
       <c r="AA160" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="161" spans="1:27">
@@ -15120,13 +15126,13 @@
         <v>0</v>
       </c>
       <c r="C161" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D161" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E161" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F161">
         <v>59876</v>
@@ -15162,7 +15168,7 @@
         <v>0</v>
       </c>
       <c r="Q161" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="R161">
         <v>0</v>
@@ -15192,7 +15198,7 @@
         <v>2</v>
       </c>
       <c r="AA161" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="162" spans="1:27">
@@ -15203,13 +15209,13 @@
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D162" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E162" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F162">
         <v>24475</v>
@@ -15245,7 +15251,7 @@
         <v>1</v>
       </c>
       <c r="Q162" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="R162">
         <v>0</v>
@@ -15275,7 +15281,7 @@
         <v>3</v>
       </c>
       <c r="AA162" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="163" spans="1:27">
@@ -15286,13 +15292,13 @@
         <v>2</v>
       </c>
       <c r="C163" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D163" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E163" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F163">
         <v>19555</v>
@@ -15328,7 +15334,7 @@
         <v>2</v>
       </c>
       <c r="Q163" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="R163">
         <v>0</v>
@@ -15358,7 +15364,7 @@
         <v>2</v>
       </c>
       <c r="AA163" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="164" spans="1:27">
@@ -15369,13 +15375,13 @@
         <v>3</v>
       </c>
       <c r="C164" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D164" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E164" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F164">
         <v>7930</v>
@@ -15411,7 +15417,7 @@
         <v>3</v>
       </c>
       <c r="Q164" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="R164">
         <v>0</v>
@@ -15441,7 +15447,7 @@
         <v>2</v>
       </c>
       <c r="AA164" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="165" spans="1:27">
@@ -15452,13 +15458,13 @@
         <v>4</v>
       </c>
       <c r="C165" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D165" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E165" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F165">
         <v>11390</v>
@@ -15494,7 +15500,7 @@
         <v>4</v>
       </c>
       <c r="Q165" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="R165">
         <v>0</v>
@@ -15524,7 +15530,7 @@
         <v>1</v>
       </c>
       <c r="AA165" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="166" spans="1:27">
@@ -15535,13 +15541,13 @@
         <v>5</v>
       </c>
       <c r="C166" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D166" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E166" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F166">
         <v>10632</v>
@@ -15577,7 +15583,7 @@
         <v>5</v>
       </c>
       <c r="Q166" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="R166">
         <v>0</v>
@@ -15607,7 +15613,7 @@
         <v>2</v>
       </c>
       <c r="AA166" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="167" spans="1:27">
@@ -15618,13 +15624,13 @@
         <v>6</v>
       </c>
       <c r="C167" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D167" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E167" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F167">
         <v>27506</v>
@@ -15660,7 +15666,7 @@
         <v>6</v>
       </c>
       <c r="Q167" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R167">
         <v>0</v>
@@ -15690,7 +15696,7 @@
         <v>3</v>
       </c>
       <c r="AA167" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="168" spans="1:27">
@@ -15701,13 +15707,13 @@
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D168" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E168" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F168">
         <v>12721</v>
@@ -15743,7 +15749,7 @@
         <v>7</v>
       </c>
       <c r="Q168" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R168">
         <v>0</v>
@@ -15773,7 +15779,7 @@
         <v>2</v>
       </c>
       <c r="AA168" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="169" spans="1:27">
@@ -15784,13 +15790,13 @@
         <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D169" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E169" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F169">
         <v>7852</v>
@@ -15826,7 +15832,7 @@
         <v>8</v>
       </c>
       <c r="Q169" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="R169">
         <v>0</v>
@@ -15856,7 +15862,7 @@
         <v>1</v>
       </c>
       <c r="AA169" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="170" spans="1:27">
@@ -15867,13 +15873,13 @@
         <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D170" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E170" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F170">
         <v>11343</v>
@@ -15909,7 +15915,7 @@
         <v>9</v>
       </c>
       <c r="Q170" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="R170">
         <v>0</v>
@@ -15939,7 +15945,7 @@
         <v>1</v>
       </c>
       <c r="AA170" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="171" spans="1:27">
@@ -15950,13 +15956,13 @@
         <v>10</v>
       </c>
       <c r="C171" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D171" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E171" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F171">
         <v>5122</v>
@@ -15992,7 +15998,7 @@
         <v>10</v>
       </c>
       <c r="Q171" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="R171">
         <v>0</v>
@@ -16022,7 +16028,7 @@
         <v>0</v>
       </c>
       <c r="AA171" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="172" spans="1:27">
@@ -16033,13 +16039,13 @@
         <v>11</v>
       </c>
       <c r="C172" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D172" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E172" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F172">
         <v>2977</v>
@@ -16075,7 +16081,7 @@
         <v>11</v>
       </c>
       <c r="Q172" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="R172">
         <v>0</v>
@@ -16105,7 +16111,7 @@
         <v>1</v>
       </c>
       <c r="AA172" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="173" spans="1:27">
@@ -16116,13 +16122,13 @@
         <v>0</v>
       </c>
       <c r="C173" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D173" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E173" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F173">
         <v>81350</v>
@@ -16158,7 +16164,7 @@
         <v>0</v>
       </c>
       <c r="Q173" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="R173">
         <v>0</v>
@@ -16188,7 +16194,7 @@
         <v>2</v>
       </c>
       <c r="AA173" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="174" spans="1:27">
@@ -16199,13 +16205,13 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D174" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E174" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F174">
         <v>33973</v>
@@ -16241,7 +16247,7 @@
         <v>1</v>
       </c>
       <c r="Q174" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="R174">
         <v>0</v>
@@ -16271,7 +16277,7 @@
         <v>3</v>
       </c>
       <c r="AA174" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="175" spans="1:27">
@@ -16282,13 +16288,13 @@
         <v>2</v>
       </c>
       <c r="C175" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D175" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E175" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F175">
         <v>7034</v>
@@ -16324,7 +16330,7 @@
         <v>2</v>
       </c>
       <c r="Q175" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="R175">
         <v>0</v>
@@ -16354,7 +16360,7 @@
         <v>2</v>
       </c>
       <c r="AA175" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="176" spans="1:27">
@@ -16365,13 +16371,13 @@
         <v>3</v>
       </c>
       <c r="C176" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D176" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E176" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F176">
         <v>10420</v>
@@ -16407,7 +16413,7 @@
         <v>3</v>
       </c>
       <c r="Q176" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="R176">
         <v>0</v>
@@ -16437,7 +16443,7 @@
         <v>2</v>
       </c>
       <c r="AA176" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="177" spans="1:27">
@@ -16448,13 +16454,13 @@
         <v>4</v>
       </c>
       <c r="C177" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D177" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E177" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F177">
         <v>4588</v>
@@ -16490,7 +16496,7 @@
         <v>4</v>
       </c>
       <c r="Q177" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R177">
         <v>0</v>
@@ -16520,7 +16526,7 @@
         <v>1</v>
       </c>
       <c r="AA177" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="178" spans="1:27">
@@ -16531,13 +16537,13 @@
         <v>0</v>
       </c>
       <c r="C178" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D178" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E178" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F178">
         <v>96345</v>
@@ -16573,7 +16579,7 @@
         <v>0</v>
       </c>
       <c r="Q178" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="R178">
         <v>1</v>
@@ -16603,7 +16609,7 @@
         <v>1</v>
       </c>
       <c r="AA178" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="179" spans="1:27">
@@ -16614,13 +16620,13 @@
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D179" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E179" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F179">
         <v>40429</v>
@@ -16656,7 +16662,7 @@
         <v>1</v>
       </c>
       <c r="Q179" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="R179">
         <v>0</v>
@@ -16686,7 +16692,7 @@
         <v>4</v>
       </c>
       <c r="AA179" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="180" spans="1:27">
@@ -16697,13 +16703,13 @@
         <v>2</v>
       </c>
       <c r="C180" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D180" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E180" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F180">
         <v>25252</v>
@@ -16739,7 +16745,7 @@
         <v>2</v>
       </c>
       <c r="Q180" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="R180">
         <v>0</v>
@@ -16769,7 +16775,7 @@
         <v>3</v>
       </c>
       <c r="AA180" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="181" spans="1:27">
@@ -16780,13 +16786,13 @@
         <v>3</v>
       </c>
       <c r="C181" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D181" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E181" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F181">
         <v>3728</v>
@@ -16822,7 +16828,7 @@
         <v>3</v>
       </c>
       <c r="Q181" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="R181">
         <v>0</v>
@@ -16852,7 +16858,7 @@
         <v>1</v>
       </c>
       <c r="AA181" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="182" spans="1:27">
@@ -16863,13 +16869,13 @@
         <v>0</v>
       </c>
       <c r="C182" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D182" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E182" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F182">
         <v>86686</v>
@@ -16905,7 +16911,7 @@
         <v>0</v>
       </c>
       <c r="Q182" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="R182">
         <v>1</v>
@@ -16935,7 +16941,7 @@
         <v>2</v>
       </c>
       <c r="AA182" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="183" spans="1:27">
@@ -16946,13 +16952,13 @@
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D183" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E183" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F183">
         <v>18027</v>
@@ -16988,7 +16994,7 @@
         <v>1</v>
       </c>
       <c r="Q183" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="R183">
         <v>0</v>
@@ -17018,7 +17024,7 @@
         <v>3</v>
       </c>
       <c r="AA183" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="184" spans="1:27">
@@ -17029,13 +17035,13 @@
         <v>2</v>
       </c>
       <c r="C184" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D184" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E184" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F184">
         <v>8351</v>
@@ -17071,7 +17077,7 @@
         <v>2</v>
       </c>
       <c r="Q184" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="R184">
         <v>0</v>
@@ -17101,7 +17107,7 @@
         <v>1</v>
       </c>
       <c r="AA184" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="185" spans="1:27">
@@ -17112,13 +17118,13 @@
         <v>3</v>
       </c>
       <c r="C185" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D185" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E185" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F185">
         <v>4263</v>
@@ -17154,7 +17160,7 @@
         <v>3</v>
       </c>
       <c r="Q185" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="R185">
         <v>0</v>
@@ -17184,7 +17190,7 @@
         <v>1</v>
       </c>
       <c r="AA185" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="186" spans="1:27">
@@ -17195,13 +17201,13 @@
         <v>0</v>
       </c>
       <c r="C186" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D186" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E186" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F186">
         <v>2857775</v>
@@ -17237,7 +17243,7 @@
         <v>0</v>
       </c>
       <c r="Q186" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="R186">
         <v>8</v>
@@ -17267,7 +17273,7 @@
         <v>0</v>
       </c>
       <c r="AA186" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="187" spans="1:27">
@@ -17278,13 +17284,13 @@
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D187" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E187" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F187">
         <v>118593</v>
@@ -17320,7 +17326,7 @@
         <v>1</v>
       </c>
       <c r="Q187" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="R187">
         <v>1</v>
@@ -17350,7 +17356,7 @@
         <v>1</v>
       </c>
       <c r="AA187" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="188" spans="1:27">
@@ -17361,13 +17367,13 @@
         <v>2</v>
       </c>
       <c r="C188" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D188" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E188" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F188">
         <v>111128</v>
@@ -17403,7 +17409,7 @@
         <v>2</v>
       </c>
       <c r="Q188" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="R188">
         <v>0</v>
@@ -17433,7 +17439,7 @@
         <v>2</v>
       </c>
       <c r="AA188" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="189" spans="1:27">
@@ -17444,13 +17450,13 @@
         <v>3</v>
       </c>
       <c r="C189" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D189" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E189" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F189">
         <v>110607</v>
@@ -17486,7 +17492,7 @@
         <v>3</v>
       </c>
       <c r="Q189" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="R189">
         <v>0</v>
@@ -17516,7 +17522,7 @@
         <v>2</v>
       </c>
       <c r="AA189" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="190" spans="1:27">
@@ -17527,13 +17533,13 @@
         <v>4</v>
       </c>
       <c r="C190" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D190" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E190" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F190">
         <v>44465</v>
@@ -17569,7 +17575,7 @@
         <v>4</v>
       </c>
       <c r="Q190" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="R190">
         <v>0</v>
@@ -17599,7 +17605,7 @@
         <v>4</v>
       </c>
       <c r="AA190" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="191" spans="1:27">
@@ -17610,13 +17616,13 @@
         <v>5</v>
       </c>
       <c r="C191" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D191" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E191" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F191">
         <v>25593</v>
@@ -17652,7 +17658,7 @@
         <v>5</v>
       </c>
       <c r="Q191" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="R191">
         <v>0</v>
@@ -17682,7 +17688,7 @@
         <v>3</v>
       </c>
       <c r="AA191" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="192" spans="1:27">
@@ -17693,13 +17699,13 @@
         <v>6</v>
       </c>
       <c r="C192" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D192" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E192" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F192">
         <v>30790</v>
@@ -17735,7 +17741,7 @@
         <v>6</v>
       </c>
       <c r="Q192" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="R192">
         <v>0</v>
@@ -17765,7 +17771,7 @@
         <v>3</v>
       </c>
       <c r="AA192" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="193" spans="1:27">
@@ -17776,13 +17782,13 @@
         <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D193" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E193" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F193">
         <v>17641</v>
@@ -17818,7 +17824,7 @@
         <v>7</v>
       </c>
       <c r="Q193" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="R193">
         <v>0</v>
@@ -17848,7 +17854,7 @@
         <v>2</v>
       </c>
       <c r="AA193" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="194" spans="1:27">
@@ -17859,13 +17865,13 @@
         <v>0</v>
       </c>
       <c r="C194" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D194" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E194" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F194">
         <v>120990</v>
@@ -17874,16 +17880,16 @@
         <v>2659</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>4.959087527894868</v>
       </c>
       <c r="J194">
         <v>12</v>
       </c>
       <c r="K194">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L194">
         <v>9.918175055789735</v>
@@ -17892,7 +17898,7 @@
         <v>9</v>
       </c>
       <c r="N194">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O194">
         <v>7.438631291842301</v>
@@ -17901,7 +17907,7 @@
         <v>0</v>
       </c>
       <c r="Q194" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="R194">
         <v>1</v>
@@ -17931,7 +17937,7 @@
         <v>1</v>
       </c>
       <c r="AA194" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="195" spans="1:27">
@@ -17942,13 +17948,13 @@
         <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D195" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E195" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F195">
         <v>193989</v>
@@ -17984,7 +17990,7 @@
         <v>1</v>
       </c>
       <c r="Q195" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="R195">
         <v>0</v>
@@ -18014,7 +18020,7 @@
         <v>16</v>
       </c>
       <c r="AA195" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="196" spans="1:27">
@@ -18025,13 +18031,13 @@
         <v>2</v>
       </c>
       <c r="C196" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D196" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E196" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F196">
         <v>97179</v>
@@ -18067,7 +18073,7 @@
         <v>2</v>
       </c>
       <c r="Q196" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="R196">
         <v>0</v>
@@ -18097,7 +18103,7 @@
         <v>2</v>
       </c>
       <c r="AA196" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="197" spans="1:27">
@@ -18108,13 +18114,13 @@
         <v>0</v>
       </c>
       <c r="C197" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D197" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="E197" t="s">
-        <v>461</v>
+        <v>256</v>
       </c>
       <c r="F197">
         <v>471132</v>
@@ -18150,7 +18156,7 @@
         <v>0</v>
       </c>
       <c r="Q197" t="s">
-        <v>461</v>
+        <v>256</v>
       </c>
       <c r="R197">
         <v>6</v>
@@ -18180,7 +18186,7 @@
         <v>0</v>
       </c>
       <c r="AA197" t="s">
-        <v>267</v>
+        <v>486</v>
       </c>
     </row>
     <row r="198" spans="1:27">
@@ -18191,10 +18197,10 @@
         <v>0</v>
       </c>
       <c r="C198" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D198" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E198" t="s">
         <v>462</v>
@@ -18263,7 +18269,7 @@
         <v>0</v>
       </c>
       <c r="AA198" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="199" spans="1:27">
@@ -18274,10 +18280,10 @@
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D199" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E199" t="s">
         <v>463</v>
@@ -18346,7 +18352,7 @@
         <v>5</v>
       </c>
       <c r="AA199" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="200" spans="1:27">
@@ -18357,10 +18363,10 @@
         <v>2</v>
       </c>
       <c r="C200" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D200" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E200" t="s">
         <v>464</v>
@@ -18429,7 +18435,7 @@
         <v>1</v>
       </c>
       <c r="AA200" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="201" spans="1:27">
@@ -18440,10 +18446,10 @@
         <v>3</v>
       </c>
       <c r="C201" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D201" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E201" t="s">
         <v>465</v>
@@ -18512,7 +18518,7 @@
         <v>2</v>
       </c>
       <c r="AA201" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="202" spans="1:27">
@@ -18523,10 +18529,10 @@
         <v>4</v>
       </c>
       <c r="C202" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D202" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E202" t="s">
         <v>466</v>
@@ -18595,7 +18601,7 @@
         <v>1</v>
       </c>
       <c r="AA202" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="203" spans="1:27">
@@ -18606,10 +18612,10 @@
         <v>5</v>
       </c>
       <c r="C203" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D203" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E203" t="s">
         <v>467</v>
@@ -18678,7 +18684,7 @@
         <v>2</v>
       </c>
       <c r="AA203" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="204" spans="1:27">
@@ -18689,13 +18695,13 @@
         <v>6</v>
       </c>
       <c r="C204" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D204" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E204" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F204">
         <v>3915</v>
@@ -18731,7 +18737,7 @@
         <v>6</v>
       </c>
       <c r="Q204" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="R204">
         <v>0</v>
@@ -18761,7 +18767,7 @@
         <v>1</v>
       </c>
       <c r="AA204" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="205" spans="1:27">
@@ -18772,10 +18778,10 @@
         <v>0</v>
       </c>
       <c r="C205" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D205" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E205" t="s">
         <v>468</v>
@@ -18844,7 +18850,7 @@
         <v>0</v>
       </c>
       <c r="AA205" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="206" spans="1:27">
@@ -18855,10 +18861,10 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D206" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E206" t="s">
         <v>469</v>
@@ -18927,7 +18933,7 @@
         <v>6</v>
       </c>
       <c r="AA206" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="207" spans="1:27">
@@ -18938,10 +18944,10 @@
         <v>2</v>
       </c>
       <c r="C207" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D207" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E207" t="s">
         <v>470</v>
@@ -19010,7 +19016,7 @@
         <v>3</v>
       </c>
       <c r="AA207" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="208" spans="1:27">
@@ -19021,10 +19027,10 @@
         <v>3</v>
       </c>
       <c r="C208" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D208" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E208" t="s">
         <v>471</v>
@@ -19093,7 +19099,7 @@
         <v>2</v>
       </c>
       <c r="AA208" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="209" spans="1:27">
@@ -19104,10 +19110,10 @@
         <v>4</v>
       </c>
       <c r="C209" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D209" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E209" t="s">
         <v>472</v>
@@ -19176,7 +19182,7 @@
         <v>2</v>
       </c>
       <c r="AA209" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="210" spans="1:27">
@@ -19187,10 +19193,10 @@
         <v>5</v>
       </c>
       <c r="C210" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D210" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E210" t="s">
         <v>473</v>
@@ -19259,7 +19265,7 @@
         <v>2</v>
       </c>
       <c r="AA210" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="211" spans="1:27">
@@ -19270,10 +19276,10 @@
         <v>6</v>
       </c>
       <c r="C211" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D211" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E211" t="s">
         <v>474</v>
@@ -19342,7 +19348,7 @@
         <v>1</v>
       </c>
       <c r="AA211" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="212" spans="1:27">
@@ -19353,10 +19359,10 @@
         <v>7</v>
       </c>
       <c r="C212" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D212" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E212" t="s">
         <v>475</v>
@@ -19425,7 +19431,7 @@
         <v>5</v>
       </c>
       <c r="AA212" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="213" spans="1:27">
@@ -19436,10 +19442,10 @@
         <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D213" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E213" t="s">
         <v>476</v>
@@ -19508,7 +19514,7 @@
         <v>0</v>
       </c>
       <c r="AA213" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="214" spans="1:27">
@@ -19519,10 +19525,10 @@
         <v>0</v>
       </c>
       <c r="C214" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D214" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E214" t="s">
         <v>477</v>
@@ -19591,7 +19597,7 @@
         <v>2</v>
       </c>
       <c r="AA214" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="215" spans="1:27">
@@ -19602,10 +19608,10 @@
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D215" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E215" t="s">
         <v>478</v>
@@ -19674,7 +19680,7 @@
         <v>3</v>
       </c>
       <c r="AA215" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="216" spans="1:27">
@@ -19685,10 +19691,10 @@
         <v>2</v>
       </c>
       <c r="C216" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D216" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E216" t="s">
         <v>479</v>
@@ -19757,7 +19763,7 @@
         <v>2</v>
       </c>
       <c r="AA216" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="217" spans="1:27">
@@ -19768,10 +19774,10 @@
         <v>3</v>
       </c>
       <c r="C217" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D217" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E217" t="s">
         <v>480</v>
@@ -19840,7 +19846,7 @@
         <v>1</v>
       </c>
       <c r="AA217" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="218" spans="1:27">
@@ -19851,10 +19857,10 @@
         <v>4</v>
       </c>
       <c r="C218" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D218" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E218" t="s">
         <v>481</v>
@@ -19923,7 +19929,7 @@
         <v>1</v>
       </c>
       <c r="AA218" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="219" spans="1:27">
@@ -19934,10 +19940,10 @@
         <v>5</v>
       </c>
       <c r="C219" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D219" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E219" t="s">
         <v>482</v>
@@ -20006,7 +20012,7 @@
         <v>1</v>
       </c>
       <c r="AA219" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="220" spans="1:27">
@@ -20017,10 +20023,10 @@
         <v>6</v>
       </c>
       <c r="C220" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D220" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E220" t="s">
         <v>483</v>
@@ -20089,7 +20095,7 @@
         <v>1</v>
       </c>
       <c r="AA220" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="221" spans="1:27">
@@ -20100,10 +20106,10 @@
         <v>7</v>
       </c>
       <c r="C221" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D221" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E221" t="s">
         <v>484</v>
@@ -20172,7 +20178,7 @@
         <v>1</v>
       </c>
       <c r="AA221" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="222" spans="1:27">
@@ -20183,10 +20189,10 @@
         <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D222" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E222" t="s">
         <v>485</v>
@@ -20255,7 +20261,7 @@
         <v>1</v>
       </c>
       <c r="AA222" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
